--- a/1_calculation_scripts/1_7_co/results/mie_results_vle_sle_sve_fluid.xlsx
+++ b/1_calculation_scripts/1_7_co/results/mie_results_vle_sle_sve_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8586083745489094</v>
       </c>
       <c r="D2">
-        <v>141.3700136184775</v>
+        <v>141.3700136184773</v>
       </c>
       <c r="E2">
-        <v>4572772.447134284</v>
+        <v>4572772.44713425</v>
       </c>
       <c r="F2">
-        <v>11413.99626391026</v>
+        <v>11413.99626391025</v>
       </c>
       <c r="G2">
         <v>3.647248785021015</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>43.58221517439728</v>
       </c>
@@ -585,10 +597,16 @@
         <v>0.1307827326707169</v>
       </c>
       <c r="M2">
+        <v>0.1307825858150513</v>
+      </c>
+      <c r="N2">
         <v>1325.342854104302</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>1.468556656467143E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>44.56995643443712</v>
       </c>
@@ -626,59 +644,71 @@
         <v>0.1298978049010549</v>
       </c>
       <c r="M3">
+        <v>0.1298976551989556</v>
+      </c>
+      <c r="N3">
         <v>1263.710606594893</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>1.497020993049974E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>45.55769769447696</v>
       </c>
       <c r="B4">
-        <v>40.64192476223816</v>
+        <v>40.64192476223805</v>
       </c>
       <c r="C4">
-        <v>0.1073021696182047</v>
+        <v>0.1073021696182044</v>
       </c>
       <c r="D4">
-        <v>35312.23773718278</v>
+        <v>35312.23773718279</v>
       </c>
       <c r="E4">
         <v>7864.564912245226</v>
       </c>
       <c r="F4">
-        <v>7485.804618678135</v>
+        <v>7485.804618678141</v>
       </c>
       <c r="G4">
-        <v>53.83268091865839</v>
+        <v>53.83268091865836</v>
       </c>
       <c r="H4">
-        <v>143.9177343479093</v>
+        <v>143.9177343479094</v>
       </c>
       <c r="I4">
-        <v>1.57780110065629E-09</v>
+        <v>1.577801100656287E-09</v>
       </c>
       <c r="J4">
-        <v>5.860358020581197E-10</v>
+        <v>5.860358020581195E-10</v>
       </c>
       <c r="K4">
-        <v>0.0008271868581199094</v>
+        <v>0.0008271868581199101</v>
       </c>
       <c r="L4">
-        <v>0.1291541389071616</v>
+        <v>0.1291541389071617</v>
       </c>
       <c r="M4">
-        <v>1218.889488734602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.1291539861663932</v>
+      </c>
+      <c r="N4">
+        <v>1218.889488734603</v>
+      </c>
+      <c r="O4">
+        <v>1.52740768444101E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>46.5454389545168</v>
+        <v>46.54543895451679</v>
       </c>
       <c r="B5">
-        <v>62.90033013359063</v>
+        <v>62.90033013359034</v>
       </c>
       <c r="C5">
-        <v>0.1625494972008875</v>
+        <v>0.1625494972008867</v>
       </c>
       <c r="D5">
         <v>34940.62944233883</v>
@@ -690,10 +720,10 @@
         <v>7339.053745703886</v>
       </c>
       <c r="G5">
-        <v>54.15601683508389</v>
+        <v>54.15601683508397</v>
       </c>
       <c r="H5">
-        <v>136.4753998698727</v>
+        <v>136.4753998698729</v>
       </c>
       <c r="I5">
         <v>1.607493862730039E-09</v>
@@ -708,53 +738,65 @@
         <v>0.1285425614559613</v>
       </c>
       <c r="M5">
+        <v>0.1285424054694695</v>
+      </c>
+      <c r="N5">
         <v>1185.024399176658</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>1.559864918048513E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>47.53318021455664</v>
+        <v>47.53318021455663</v>
       </c>
       <c r="B6">
-        <v>94.90967656530394</v>
+        <v>94.90967656530299</v>
       </c>
       <c r="C6">
-        <v>0.240182915790715</v>
+        <v>0.2401829157907127</v>
       </c>
       <c r="D6">
-        <v>34589.75072384134</v>
+        <v>34589.75072384135</v>
       </c>
       <c r="E6">
-        <v>7594.984039599331</v>
+        <v>7594.98403959933</v>
       </c>
       <c r="F6">
-        <v>7199.830965439253</v>
+        <v>7199.830965439255</v>
       </c>
       <c r="G6">
-        <v>53.3220986799965</v>
+        <v>53.32209867999656</v>
       </c>
       <c r="H6">
-        <v>128.7005879222328</v>
+        <v>128.700587922233</v>
       </c>
       <c r="I6">
-        <v>1.636930985829058E-09</v>
+        <v>1.636930985829056E-09</v>
       </c>
       <c r="J6">
-        <v>6.245761162548313E-10</v>
+        <v>6.245761162548307E-10</v>
       </c>
       <c r="K6">
-        <v>0.0008237365606381271</v>
+        <v>0.0008237365606381275</v>
       </c>
       <c r="L6">
         <v>0.128054854204052</v>
       </c>
       <c r="M6">
-        <v>1158.683817424384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.1280546947489617</v>
+      </c>
+      <c r="N6">
+        <v>1158.683817424385</v>
+      </c>
+      <c r="O6">
+        <v>1.594550903137781E-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>48.52092147459648</v>
+        <v>48.52092147459647</v>
       </c>
       <c r="B7">
         <v>139.9126545088959</v>
@@ -763,10 +805,10 @@
         <v>0.3468814595435564</v>
       </c>
       <c r="D7">
-        <v>34257.79142261044</v>
+        <v>34257.79142261045</v>
       </c>
       <c r="E7">
-        <v>7471.68659425333</v>
+        <v>7471.686594253328</v>
       </c>
       <c r="F7">
         <v>7068.346392703223</v>
@@ -775,1073 +817,1229 @@
         <v>51.65230622952681</v>
       </c>
       <c r="H7">
-        <v>120.8199896197439</v>
+        <v>120.819989619744</v>
       </c>
       <c r="I7">
-        <v>1.666230437959432E-09</v>
+        <v>1.66623043795943E-09</v>
       </c>
       <c r="J7">
-        <v>6.452943611114029E-10</v>
+        <v>6.452943611114028E-10</v>
       </c>
       <c r="K7">
-        <v>0.0008161077714074151</v>
+        <v>0.0008161077714074158</v>
       </c>
       <c r="L7">
         <v>0.1276831745580226</v>
       </c>
       <c r="M7">
+        <v>0.1276830113945974</v>
+      </c>
+      <c r="N7">
         <v>1137.708113103335</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>1.631634252295738E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>49.50866273463632</v>
+        <v>49.5086627346363</v>
       </c>
       <c r="B8">
-        <v>201.8938327258185</v>
+        <v>201.8938327258148</v>
       </c>
       <c r="C8">
-        <v>0.4905993000375386</v>
+        <v>0.4905993000375297</v>
       </c>
       <c r="D8">
         <v>33943.11290313158</v>
       </c>
       <c r="E8">
-        <v>7356.129865144311</v>
+        <v>7356.129865144317</v>
       </c>
       <c r="F8">
-        <v>6944.610903218525</v>
+        <v>6944.610903218533</v>
       </c>
       <c r="G8">
-        <v>49.40675029249645</v>
+        <v>49.4067502924964</v>
       </c>
       <c r="H8">
         <v>113.0107777208683</v>
       </c>
       <c r="I8">
-        <v>1.695509205715833E-09</v>
+        <v>1.695509205715831E-09</v>
       </c>
       <c r="J8">
-        <v>6.671072734063502E-10</v>
+        <v>6.671072734063494E-10</v>
       </c>
       <c r="K8">
-        <v>0.0008044041352025447</v>
+        <v>0.000804404135202545</v>
       </c>
       <c r="L8">
-        <v>0.127419530696989</v>
+        <v>0.1274195306969891</v>
       </c>
       <c r="M8">
-        <v>1120.659871755525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.1274193635675609</v>
+      </c>
+      <c r="N8">
+        <v>1120.659871755526</v>
+      </c>
+      <c r="O8">
+        <v>1.671294281781371E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>50.49640399467615</v>
+        <v>50.49640399467614</v>
       </c>
       <c r="B9">
-        <v>285.6698758468287</v>
+        <v>285.6698758468219</v>
       </c>
       <c r="C9">
-        <v>0.6806592474394437</v>
+        <v>0.6806592474394276</v>
       </c>
       <c r="D9">
         <v>33644.22950568888</v>
       </c>
       <c r="E9">
-        <v>7248.169256440215</v>
+        <v>7248.169256440221</v>
       </c>
       <c r="F9">
-        <v>6828.481876086242</v>
+        <v>6828.481876086251</v>
       </c>
       <c r="G9">
-        <v>46.79224969171098</v>
+        <v>46.79224969171109</v>
       </c>
       <c r="H9">
-        <v>105.4070543259529</v>
+        <v>105.407054325953</v>
       </c>
       <c r="I9">
-        <v>1.724882591749025E-09</v>
+        <v>1.724882591749024E-09</v>
       </c>
       <c r="J9">
         <v>6.901190287269714E-10</v>
       </c>
       <c r="K9">
-        <v>0.0007886123723199122</v>
+        <v>0.0007886123723199126</v>
       </c>
       <c r="L9">
         <v>0.1272553523887077</v>
       </c>
       <c r="M9">
-        <v>1106.537509829172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.1272551810165866</v>
+      </c>
+      <c r="N9">
+        <v>1106.537509829171</v>
+      </c>
+      <c r="O9">
+        <v>1.713721211076001E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>51.48414525471599</v>
+        <v>51.48414525471598</v>
       </c>
       <c r="B10">
-        <v>396.9787433667153</v>
+        <v>396.9787433667066</v>
       </c>
       <c r="C10">
-        <v>0.9278345423792616</v>
+        <v>0.9278345423792412</v>
       </c>
       <c r="D10">
-        <v>33359.79223924318</v>
+        <v>33359.79223924319</v>
       </c>
       <c r="E10">
-        <v>7147.545646767126</v>
+        <v>7147.545646767139</v>
       </c>
       <c r="F10">
-        <v>6719.702444000145</v>
+        <v>6719.702444000157</v>
       </c>
       <c r="G10">
-        <v>43.97025279395123</v>
+        <v>43.97025279395133</v>
       </c>
       <c r="H10">
-        <v>98.10644867729062</v>
+        <v>98.10644867729077</v>
       </c>
       <c r="I10">
-        <v>1.754463721820889E-09</v>
+        <v>1.754463721820888E-09</v>
       </c>
       <c r="J10">
-        <v>7.144397632023269E-10</v>
+        <v>7.144397632023267E-10</v>
       </c>
       <c r="K10">
-        <v>0.0007688146724208367</v>
+        <v>0.0007688146724208374</v>
       </c>
       <c r="L10">
         <v>0.1271811959100711</v>
       </c>
       <c r="M10">
+        <v>0.1271810199984471</v>
+      </c>
+      <c r="N10">
         <v>1094.615698377919</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>1.759116239695699E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>52.47188651475583</v>
+        <v>52.47188651475582</v>
       </c>
       <c r="B11">
-        <v>542.5668245004732</v>
+        <v>542.5668245004672</v>
       </c>
       <c r="C11">
-        <v>1.244418511217854</v>
+        <v>1.244418511217841</v>
       </c>
       <c r="D11">
-        <v>33088.57441195831</v>
+        <v>33088.57441195832</v>
       </c>
       <c r="E11">
-        <v>7053.918228703369</v>
+        <v>7053.918228703362</v>
       </c>
       <c r="F11">
-        <v>6617.934341925533</v>
+        <v>6617.934341925529</v>
       </c>
       <c r="G11">
-        <v>41.06428566020035</v>
+        <v>41.06428566020041</v>
       </c>
       <c r="H11">
-        <v>91.17641913692242</v>
+        <v>91.17641913692258</v>
       </c>
       <c r="I11">
-        <v>1.784363241300287E-09</v>
+        <v>1.784363241300285E-09</v>
       </c>
       <c r="J11">
-        <v>7.401856666909781E-10</v>
+        <v>7.40185666690978E-10</v>
       </c>
       <c r="K11">
-        <v>0.0007452086650221127</v>
+        <v>0.0007452086650221138</v>
       </c>
       <c r="L11">
         <v>0.127186610382398</v>
       </c>
       <c r="M11">
-        <v>1084.351676116838</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.1271864296132504</v>
+      </c>
+      <c r="N11">
+        <v>1084.351676116839</v>
+      </c>
+      <c r="O11">
+        <v>1.807691476183964E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>53.45962777479567</v>
+        <v>53.45962777479565</v>
       </c>
       <c r="B12">
-        <v>730.2730430052513</v>
+        <v>730.2730430052293</v>
       </c>
       <c r="C12">
-        <v>1.644281966480551</v>
+        <v>1.644281966480502</v>
       </c>
       <c r="D12">
-        <v>32829.45893831881</v>
+        <v>32829.4589383188</v>
       </c>
       <c r="E12">
-        <v>6966.891385010857</v>
+        <v>6966.891385010859</v>
       </c>
       <c r="F12">
         <v>6522.784789069136</v>
       </c>
       <c r="G12">
-        <v>38.16668990704112</v>
+        <v>38.16668990704125</v>
       </c>
       <c r="H12">
-        <v>84.65999815495518</v>
+        <v>84.65999815495536</v>
       </c>
       <c r="I12">
-        <v>1.814689180903138E-09</v>
+        <v>1.814689180903142E-09</v>
       </c>
       <c r="J12">
         <v>7.674790077376027E-10</v>
       </c>
       <c r="K12">
-        <v>0.0007181235712647129</v>
+        <v>0.0007181235712647123</v>
       </c>
       <c r="L12">
-        <v>0.1272601751739479</v>
+        <v>0.1272601751739478</v>
       </c>
       <c r="M12">
-        <v>1075.327968574637</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.1272599892069785</v>
+      </c>
+      <c r="N12">
+        <v>1075.327968574635</v>
+      </c>
+      <c r="O12">
+        <v>1.859669692825786E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>54.4473690348355</v>
+        <v>54.44736903483549</v>
       </c>
       <c r="B13">
-        <v>969.1090433801243</v>
+        <v>969.1090433801227</v>
       </c>
       <c r="C13">
-        <v>2.142918484114086</v>
+        <v>2.142918484114082</v>
       </c>
       <c r="D13">
-        <v>32581.42710451706</v>
+        <v>32581.42710451707</v>
       </c>
       <c r="E13">
-        <v>6886.036225039495</v>
+        <v>6886.036225039496</v>
       </c>
       <c r="F13">
-        <v>6433.828028058033</v>
+        <v>6433.828028058037</v>
       </c>
       <c r="G13">
-        <v>35.34454412561799</v>
+        <v>35.34454412561804</v>
       </c>
       <c r="H13">
-        <v>78.58085312807093</v>
+        <v>78.58085312807108</v>
       </c>
       <c r="I13">
-        <v>1.845546969132903E-09</v>
+        <v>1.845546969132899E-09</v>
       </c>
       <c r="J13">
-        <v>7.964480753556911E-10</v>
+        <v>7.9644807535569E-10</v>
       </c>
       <c r="K13">
-        <v>0.0006880271364326097</v>
+        <v>0.0006880271364326109</v>
       </c>
       <c r="L13">
         <v>0.1273896972097857</v>
       </c>
       <c r="M13">
-        <v>1067.21626468056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.1273895056813979</v>
+      </c>
+      <c r="N13">
+        <v>1067.216264680561</v>
+      </c>
+      <c r="O13">
+        <v>1.915283877764422E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>55.43511029487534</v>
+        <v>55.43511029487532</v>
       </c>
       <c r="B14">
-        <v>1269.334638561986</v>
+        <v>1269.334638561965</v>
       </c>
       <c r="C14">
-        <v>2.757477874100561</v>
+        <v>2.757477874100515</v>
       </c>
       <c r="D14">
         <v>32343.54860511408</v>
       </c>
       <c r="E14">
-        <v>6810.907482502204</v>
+        <v>6810.907482502205</v>
       </c>
       <c r="F14">
-        <v>6350.622222459109</v>
+        <v>6350.622222459112</v>
       </c>
       <c r="G14">
-        <v>32.64475120002759</v>
+        <v>32.64475120002763</v>
       </c>
       <c r="H14">
-        <v>72.94762740838085</v>
+        <v>72.94762740838097</v>
       </c>
       <c r="I14">
         <v>1.877039569768487E-09</v>
       </c>
       <c r="J14">
-        <v>8.272270222141624E-10</v>
+        <v>8.272270222141623E-10</v>
       </c>
       <c r="K14">
-        <v>0.000655518151547147</v>
+        <v>0.0006555181515471473</v>
       </c>
       <c r="L14">
         <v>0.1275625372995795</v>
       </c>
       <c r="M14">
+        <v>0.1275623398219239</v>
+      </c>
+      <c r="N14">
         <v>1059.754101217842</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>1.974776555831586E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>56.42285155491518</v>
+        <v>56.42285155491516</v>
       </c>
       <c r="B15">
-        <v>1642.527771164192</v>
+        <v>1642.527771164235</v>
       </c>
       <c r="C15">
-        <v>3.506788314866784</v>
+        <v>3.506788314866876</v>
       </c>
       <c r="D15">
         <v>32114.97269118559</v>
       </c>
       <c r="E15">
-        <v>6741.056479978284</v>
+        <v>6741.056479978285</v>
       </c>
       <c r="F15">
-        <v>6272.722418089588</v>
+        <v>6272.722418089589</v>
       </c>
       <c r="G15">
-        <v>30.09832941765072</v>
+        <v>30.09832941765082</v>
       </c>
       <c r="H15">
-        <v>67.75758376878187</v>
+        <v>67.75758376878207</v>
       </c>
       <c r="I15">
-        <v>1.909267723954453E-09</v>
+        <v>1.909267723954452E-09</v>
       </c>
       <c r="J15">
-        <v>8.599555937343999E-10</v>
+        <v>8.599555937343991E-10</v>
       </c>
       <c r="K15">
-        <v>0.000621301350659917</v>
+        <v>0.0006213013506599181</v>
       </c>
       <c r="L15">
-        <v>0.1277660199107093</v>
+        <v>0.1277660199107094</v>
       </c>
       <c r="M15">
+        <v>0.1277658160708244</v>
+      </c>
+      <c r="N15">
         <v>1052.729542878052</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>2.038398850077676E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>57.41059281495502</v>
+        <v>57.410592814955</v>
       </c>
       <c r="B16">
-        <v>2101.64831902957</v>
+        <v>2101.648319029543</v>
       </c>
       <c r="C16">
-        <v>4.411367755575527</v>
+        <v>4.411367755575473</v>
       </c>
       <c r="D16">
-        <v>31894.92029271551</v>
+        <v>31894.92029271552</v>
       </c>
       <c r="E16">
-        <v>6676.040824996648</v>
+        <v>6676.040824996652</v>
       </c>
       <c r="F16">
-        <v>6199.690233130804</v>
+        <v>6199.690233130816</v>
       </c>
       <c r="G16">
-        <v>27.72397664485891</v>
+        <v>27.72397664485894</v>
       </c>
       <c r="H16">
-        <v>62.99960616762534</v>
+        <v>62.99960616762547</v>
       </c>
       <c r="I16">
-        <v>1.942330278337818E-09</v>
+        <v>1.942330278337812E-09</v>
       </c>
       <c r="J16">
-        <v>8.947787281995591E-10</v>
+        <v>8.947787281995582E-10</v>
       </c>
       <c r="K16">
-        <v>0.0005861451730546985</v>
+        <v>0.0005861451730547001</v>
       </c>
       <c r="L16">
-        <v>0.1279878734819785</v>
+        <v>0.1279878734819786</v>
       </c>
       <c r="M16">
-        <v>1045.970948931172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.1279876628410528</v>
+      </c>
+      <c r="N16">
+        <v>1045.970948931173</v>
+      </c>
+      <c r="O16">
+        <v>2.106409258203186E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>58.39833407499486</v>
+        <v>58.39833407499484</v>
       </c>
       <c r="B17">
-        <v>2661.095164232505</v>
+        <v>2661.095164232456</v>
       </c>
       <c r="C17">
-        <v>5.493425311548958</v>
+        <v>5.493425311548859</v>
       </c>
       <c r="D17">
-        <v>31682.67699689277</v>
+        <v>31682.67699689278</v>
       </c>
       <c r="E17">
-        <v>6615.431437783371</v>
+        <v>6615.431437783378</v>
       </c>
       <c r="F17">
-        <v>6131.100877352889</v>
+        <v>6131.100877352902</v>
       </c>
       <c r="G17">
-        <v>25.53099143675107</v>
+        <v>25.53099143675118</v>
       </c>
       <c r="H17">
-        <v>58.6566321103242</v>
+        <v>58.6566321103244</v>
       </c>
       <c r="I17">
-        <v>1.976324582945141E-09</v>
+        <v>1.976324582945135E-09</v>
       </c>
       <c r="J17">
-        <v>9.318460143842906E-10</v>
+        <v>9.318460143842887E-10</v>
       </c>
       <c r="K17">
-        <v>0.0005508274064835292</v>
+        <v>0.0005508274064835308</v>
       </c>
       <c r="L17">
-        <v>0.1282166487421759</v>
+        <v>0.128216648742176</v>
       </c>
       <c r="M17">
-        <v>1039.339989249407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.1282164308349638</v>
+      </c>
+      <c r="N17">
+        <v>1039.339989249409</v>
+      </c>
+      <c r="O17">
+        <v>2.179072122116151E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>59.3860753350347</v>
+        <v>59.38607533503468</v>
       </c>
       <c r="B18">
-        <v>3336.756043158665</v>
+        <v>3336.756043158623</v>
       </c>
       <c r="C18">
-        <v>6.77685348900817</v>
+        <v>6.776853489008087</v>
       </c>
       <c r="D18">
-        <v>31477.58677987473</v>
+        <v>31477.58677987474</v>
       </c>
       <c r="E18">
         <v>6558.817435646863</v>
       </c>
       <c r="F18">
-        <v>6066.548025700778</v>
+        <v>6066.548025700779</v>
       </c>
       <c r="G18">
-        <v>23.52163852870485</v>
+        <v>23.52163852870481</v>
       </c>
       <c r="H18">
-        <v>54.70759308670112</v>
+        <v>54.70759308670117</v>
       </c>
       <c r="I18">
         <v>2.011346944907171E-09</v>
       </c>
       <c r="J18">
-        <v>9.713109955720171E-10</v>
+        <v>9.713109955720155E-10</v>
       </c>
       <c r="K18">
-        <v>0.0005160774837234114</v>
+        <v>0.0005160774837234123</v>
       </c>
       <c r="L18">
         <v>0.1284420693569455</v>
       </c>
       <c r="M18">
+        <v>0.128441843691368</v>
+      </c>
+      <c r="N18">
         <v>1032.726706239563</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>2.256655774919185E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>60.37381659507454</v>
+        <v>60.37381659507452</v>
       </c>
       <c r="B19">
-        <v>4146.049802548251</v>
+        <v>4146.049802548138</v>
       </c>
       <c r="C19">
-        <v>8.287212174868278</v>
+        <v>8.287212174868055</v>
       </c>
       <c r="D19">
         <v>31279.0464030412</v>
       </c>
       <c r="E19">
-        <v>6505.809322462091</v>
+        <v>6505.809322462092</v>
       </c>
       <c r="F19">
         <v>6005.646995023324</v>
       </c>
       <c r="G19">
-        <v>21.69304298014007</v>
+        <v>21.69304298014013</v>
       </c>
       <c r="H19">
-        <v>51.12893876463092</v>
+        <v>51.12893876463107</v>
       </c>
       <c r="I19">
-        <v>2.047493126569939E-09</v>
+        <v>2.047493126569938E-09</v>
       </c>
       <c r="J19">
-        <v>1.013330312251935E-09</v>
+        <v>1.013330312251933E-09</v>
       </c>
       <c r="K19">
-        <v>0.0004825255949458184</v>
+        <v>0.0004825255949458197</v>
       </c>
       <c r="L19">
         <v>0.1286552806063084</v>
       </c>
       <c r="M19">
+        <v>0.1286550466632726</v>
+      </c>
+      <c r="N19">
         <v>1026.04581661198</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>2.339430357931065E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>61.36155785511438</v>
+        <v>61.36155785511434</v>
       </c>
       <c r="B20">
-        <v>5107.960799738378</v>
+        <v>5107.96079973842</v>
       </c>
       <c r="C20">
-        <v>10.05170541270231</v>
+        <v>10.0517054127024</v>
       </c>
       <c r="D20">
-        <v>31086.50039621082</v>
+        <v>31086.50039621083</v>
       </c>
       <c r="E20">
-        <v>6456.040859142948</v>
+        <v>6456.040859142951</v>
       </c>
       <c r="F20">
-        <v>5948.036600184964</v>
+        <v>5948.036600184967</v>
       </c>
       <c r="G20">
-        <v>20.03869030238932</v>
+        <v>20.03869030238934</v>
       </c>
       <c r="H20">
-        <v>47.89581486882666</v>
+        <v>47.89581486882673</v>
       </c>
       <c r="I20">
-        <v>2.084858878879132E-09</v>
+        <v>2.08485887887913E-09</v>
       </c>
       <c r="J20">
-        <v>1.058062680342159E-09</v>
+        <v>1.058062680342158E-09</v>
       </c>
       <c r="K20">
-        <v>0.0004506670957926673</v>
+        <v>0.000450667095792669</v>
       </c>
       <c r="L20">
         <v>0.1288489756571</v>
       </c>
       <c r="M20">
-        <v>1019.233713415486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.1288487328905689</v>
+      </c>
+      <c r="N20">
+        <v>1019.233713415487</v>
+      </c>
+      <c r="O20">
+        <v>2.427665310917595E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>62.34929911515422</v>
+        <v>62.34929911515418</v>
       </c>
       <c r="B21">
-        <v>6243.065301357688</v>
+        <v>6243.065301357624</v>
       </c>
       <c r="C21">
-        <v>12.09915205404445</v>
+        <v>12.09915205404433</v>
       </c>
       <c r="D21">
-        <v>30899.43656007676</v>
+        <v>30899.43656007677</v>
       </c>
       <c r="E21">
-        <v>6409.169925217997</v>
+        <v>6409.169925218006</v>
       </c>
       <c r="F21">
-        <v>5893.380000042344</v>
+        <v>5893.38000004235</v>
       </c>
       <c r="G21">
-        <v>18.5496012133687</v>
+        <v>18.54960121336875</v>
       </c>
       <c r="H21">
-        <v>44.9829570055705</v>
+        <v>44.98295700557061</v>
       </c>
       <c r="I21">
-        <v>2.123540503123696E-09</v>
+        <v>2.123540503123697E-09</v>
       </c>
       <c r="J21">
-        <v>1.105667707462733E-09</v>
+        <v>1.105667707462732E-09</v>
       </c>
       <c r="K21">
-        <v>0.0004208465834553042</v>
+        <v>0.0004208465834553049</v>
       </c>
       <c r="L21">
         <v>0.1290173935567679</v>
       </c>
       <c r="M21">
+        <v>0.1290171413941128</v>
+      </c>
+      <c r="N21">
         <v>1012.245819497526</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>2.521626551429705E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>63.33704037519405</v>
+        <v>63.33704037519401</v>
       </c>
       <c r="B22">
-        <v>7573.549849725418</v>
+        <v>7573.549849725438</v>
       </c>
       <c r="C22">
-        <v>14.45995142237954</v>
+        <v>14.45995142237959</v>
       </c>
       <c r="D22">
-        <v>30717.38192852243</v>
+        <v>30717.38192852244</v>
       </c>
       <c r="E22">
-        <v>6364.878623866373</v>
+        <v>6364.878623866372</v>
       </c>
       <c r="F22">
-        <v>5841.36478601349</v>
+        <v>5841.364786013493</v>
       </c>
       <c r="G22">
-        <v>17.21524050445139</v>
+        <v>17.21524050445144</v>
       </c>
       <c r="H22">
-        <v>42.36535441551832</v>
+        <v>42.36535441551845</v>
       </c>
       <c r="I22">
-        <v>2.16363543613859E-09</v>
+        <v>2.163635436138582E-09</v>
       </c>
       <c r="J22">
-        <v>1.156304556486026E-09</v>
+        <v>1.156304556486022E-09</v>
       </c>
       <c r="K22">
-        <v>0.0003932611445119525</v>
+        <v>0.0003932611445119544</v>
       </c>
       <c r="L22">
-        <v>0.1291561968164119</v>
+        <v>0.129156196816412</v>
       </c>
       <c r="M22">
-        <v>1005.054086125715</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.1291559346590746</v>
+      </c>
+      <c r="N22">
+        <v>1005.054086125717</v>
+      </c>
+      <c r="O22">
+        <v>2.621573373709903E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>64.32478163523389</v>
+        <v>64.32478163523386</v>
       </c>
       <c r="B23">
         <v>9123.221676675683</v>
       </c>
       <c r="C23">
-        <v>17.16604515405534</v>
+        <v>17.16604515405535</v>
       </c>
       <c r="D23">
-        <v>30539.89913872737</v>
+        <v>30539.89913872738</v>
       </c>
       <c r="E23">
-        <v>6322.872833218177</v>
+        <v>6322.872833218176</v>
       </c>
       <c r="F23">
-        <v>5791.702516406588</v>
+        <v>5791.702516406592</v>
       </c>
       <c r="G23">
-        <v>16.02421064767146</v>
+        <v>16.0242106476715</v>
       </c>
       <c r="H23">
-        <v>40.01872953546283</v>
+        <v>40.01872953546297</v>
       </c>
       <c r="I23">
-        <v>2.205242855882025E-09</v>
+        <v>2.205242855882019E-09</v>
       </c>
       <c r="J23">
-        <v>1.210130473120589E-09</v>
+        <v>1.210130473120586E-09</v>
       </c>
       <c r="K23">
-        <v>0.0003679784119334963</v>
+        <v>0.0003679784119334973</v>
       </c>
       <c r="L23">
         <v>0.1292622480514974</v>
       </c>
       <c r="M23">
-        <v>997.6445377522897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.129261975275986</v>
+      </c>
+      <c r="N23">
+        <v>997.6445377522914</v>
+      </c>
+      <c r="O23">
+        <v>2.727755113494464E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>65.31252289527373</v>
+        <v>65.31252289527369</v>
       </c>
       <c r="B24">
-        <v>10917.51134735383</v>
+        <v>10917.51134735385</v>
       </c>
       <c r="C24">
-        <v>20.25087638577658</v>
+        <v>20.25087638577663</v>
       </c>
       <c r="D24">
-        <v>30366.58316325132</v>
+        <v>30366.58316325133</v>
       </c>
       <c r="E24">
-        <v>6282.881364970694</v>
+        <v>6282.881364970702</v>
       </c>
       <c r="F24">
-        <v>5744.127857903721</v>
+        <v>5744.127857903728</v>
       </c>
       <c r="G24">
-        <v>14.96477263283605</v>
+        <v>14.96477263283611</v>
       </c>
       <c r="H24">
-        <v>37.91987176199607</v>
+        <v>37.91987176199615</v>
       </c>
       <c r="I24">
-        <v>2.248464305922648E-09</v>
+        <v>2.248464305922647E-09</v>
       </c>
       <c r="J24">
-        <v>1.267299202322911E-09</v>
+        <v>1.267299202322909E-09</v>
       </c>
       <c r="K24">
-        <v>0.0003449632202163637</v>
+        <v>0.0003449632202163647</v>
       </c>
       <c r="L24">
-        <v>0.1293333135454239</v>
+        <v>0.1293333135454238</v>
       </c>
       <c r="M24">
-        <v>990.0148414095348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.1293330295046597</v>
+      </c>
+      <c r="N24">
+        <v>990.0148414095346</v>
+      </c>
+      <c r="O24">
+        <v>2.840407641443518E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>66.30026415531357</v>
+        <v>66.30026415531353</v>
       </c>
       <c r="B25">
-        <v>12983.46790923822</v>
+        <v>12983.46790923792</v>
       </c>
       <c r="C25">
-        <v>23.74934744341612</v>
+        <v>23.74934744341559</v>
       </c>
       <c r="D25">
         <v>30197.05836374126</v>
       </c>
       <c r="E25">
-        <v>6244.654856694522</v>
+        <v>6244.654856694516</v>
       </c>
       <c r="F25">
-        <v>5698.397460891389</v>
+        <v>5698.39746089138</v>
       </c>
       <c r="G25">
-        <v>14.02522929544478</v>
+        <v>14.02522929544485</v>
       </c>
       <c r="H25">
-        <v>36.04685714127239</v>
+        <v>36.0468571412725</v>
       </c>
       <c r="I25">
-        <v>2.293404338809327E-09</v>
+        <v>2.293404338809329E-09</v>
       </c>
       <c r="J25">
         <v>1.327959326454135E-09</v>
       </c>
       <c r="K25">
-        <v>0.0003241068162758076</v>
+        <v>0.0003241068162758079</v>
       </c>
       <c r="L25">
-        <v>0.1293677261617001</v>
+        <v>0.1293677261617</v>
       </c>
       <c r="M25">
-        <v>982.1719299839066</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.1293674301867236</v>
+      </c>
+      <c r="N25">
+        <v>982.171929983906</v>
+      </c>
+      <c r="O25">
+        <v>2.95974976389813E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>67.28800541535342</v>
+        <v>67.28800541535337</v>
       </c>
       <c r="B26">
-        <v>15349.74690241993</v>
+        <v>15349.74690241989</v>
       </c>
       <c r="C26">
-        <v>27.69777715373523</v>
+        <v>27.69777715373517</v>
       </c>
       <c r="D26">
-        <v>30030.97583066233</v>
+        <v>30030.97583066234</v>
       </c>
       <c r="E26">
-        <v>6207.96449575001</v>
+        <v>6207.964495750006</v>
       </c>
       <c r="F26">
-        <v>5654.288666843127</v>
+        <v>5654.288666843126</v>
       </c>
       <c r="G26">
         <v>13.19420012702088</v>
       </c>
       <c r="H26">
-        <v>34.37917992173787</v>
+        <v>34.37917992173789</v>
       </c>
       <c r="I26">
-        <v>2.340171179573811E-09</v>
+        <v>2.340171179573809E-09</v>
       </c>
       <c r="J26">
-        <v>1.39225256578889E-09</v>
+        <v>1.392252565788889E-09</v>
       </c>
       <c r="K26">
-        <v>0.0003052540651082606</v>
+        <v>0.0003052540651082613</v>
       </c>
       <c r="L26">
         <v>0.129364040704289</v>
       </c>
       <c r="M26">
-        <v>974.129735617659</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.1293637321063266</v>
+      </c>
+      <c r="N26">
+        <v>974.1297356176594</v>
+      </c>
+      <c r="O26">
+        <v>3.085979624058114E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>68.27574667539325</v>
+        <v>68.27574667539319</v>
       </c>
       <c r="B27">
-        <v>18046.59165491406</v>
+        <v>18046.59165491429</v>
       </c>
       <c r="C27">
-        <v>32.13385885214988</v>
+        <v>32.13385885215031</v>
       </c>
       <c r="D27">
         <v>29868.0109776114</v>
       </c>
       <c r="E27">
-        <v>6172.600649631246</v>
+        <v>6172.600649631244</v>
       </c>
       <c r="F27">
         <v>5611.598122820584</v>
       </c>
       <c r="G27">
-        <v>12.46081121650389</v>
+        <v>12.46081121650393</v>
       </c>
       <c r="H27">
-        <v>32.89781697863824</v>
+        <v>32.89781697863834</v>
       </c>
       <c r="I27">
-        <v>2.388877411757408E-09</v>
+        <v>2.388877411757406E-09</v>
       </c>
       <c r="J27">
-        <v>1.460312088661581E-09</v>
+        <v>1.460312088661579E-09</v>
       </c>
       <c r="K27">
-        <v>0.0002882260070438739</v>
+        <v>0.0002882260070438743</v>
       </c>
       <c r="L27">
-        <v>0.1293207121384773</v>
+        <v>0.1293207121384772</v>
       </c>
       <c r="M27">
-        <v>965.9070967854699</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.1293203902113564</v>
+      </c>
+      <c r="N27">
+        <v>965.9070967854703</v>
+      </c>
+      <c r="O27">
+        <v>3.219271208277955E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>69.26348793543309</v>
+        <v>69.26348793543303</v>
       </c>
       <c r="B28">
-        <v>21105.80834103227</v>
+        <v>21105.80834103201</v>
       </c>
       <c r="C28">
-        <v>37.09662009933663</v>
+        <v>37.09662009933619</v>
       </c>
       <c r="D28">
-        <v>29707.8613624122</v>
+        <v>29707.86136241222</v>
       </c>
       <c r="E28">
-        <v>6138.371458974593</v>
+        <v>6138.371458974592</v>
       </c>
       <c r="F28">
-        <v>5570.140359541076</v>
+        <v>5570.140359541075</v>
       </c>
       <c r="G28">
-        <v>11.8148194777092</v>
+        <v>11.81481947770921</v>
       </c>
       <c r="H28">
-        <v>31.58524198269689</v>
+        <v>31.58524198269691</v>
       </c>
       <c r="I28">
-        <v>2.43964068938712E-09</v>
+        <v>2.439640689387118E-09</v>
       </c>
       <c r="J28">
-        <v>1.532260883611449E-09</v>
+        <v>1.532260883611444E-09</v>
       </c>
       <c r="K28">
-        <v>0.0002728368232585243</v>
+        <v>0.0002728368232585252</v>
       </c>
       <c r="L28">
         <v>0.1292358219513043</v>
       </c>
       <c r="M28">
-        <v>957.5258953027823</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.1292354859741973</v>
+      </c>
+      <c r="N28">
+        <v>957.5258953027824</v>
+      </c>
+      <c r="O28">
+        <v>3.359771069802069E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>70.25122919547292</v>
+        <v>70.25122919547287</v>
       </c>
       <c r="B29">
-        <v>24560.73532169056</v>
+        <v>24560.73532169043</v>
       </c>
       <c r="C29">
-        <v>42.62638505079639</v>
+        <v>42.62638505079619</v>
       </c>
       <c r="D29">
         <v>29550.24471038624</v>
       </c>
       <c r="E29">
-        <v>6105.101434661036</v>
+        <v>6105.101434661045</v>
       </c>
       <c r="F29">
-        <v>5529.7463746147</v>
+        <v>5529.74637461471</v>
       </c>
       <c r="G29">
         <v>11.24668657722045</v>
       </c>
       <c r="H29">
-        <v>30.42540275236166</v>
+        <v>30.42540275236167</v>
       </c>
       <c r="I29">
-        <v>2.492584479280518E-09</v>
+        <v>2.492584479280514E-09</v>
       </c>
       <c r="J29">
-        <v>1.608210248812495E-09</v>
+        <v>1.608210248812491E-09</v>
       </c>
       <c r="K29">
-        <v>0.0002589054432895446</v>
+        <v>0.0002589054432895454</v>
       </c>
       <c r="L29">
-        <v>0.1291068713752874</v>
+        <v>0.1291068713752875</v>
       </c>
       <c r="M29">
-        <v>949.0094631910132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.129106520615749</v>
+      </c>
+      <c r="N29">
+        <v>949.009463191014</v>
+      </c>
+      <c r="O29">
+        <v>3.507595384863483E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>71.23897045551277</v>
+        <v>71.23897045551271</v>
       </c>
       <c r="B30">
-        <v>28446.20731360317</v>
+        <v>28446.20731360308</v>
       </c>
       <c r="C30">
-        <v>48.7647403502305</v>
+        <v>48.7647403502304</v>
       </c>
       <c r="D30">
-        <v>29394.89711799912</v>
+        <v>29394.89711799913</v>
       </c>
       <c r="E30">
-        <v>6072.630088747029</v>
+        <v>6072.630088747032</v>
       </c>
       <c r="F30">
         <v>5490.262250823695</v>
       </c>
       <c r="G30">
-        <v>10.7476148888057</v>
+        <v>10.74761488880574</v>
       </c>
       <c r="H30">
-        <v>29.40367240576929</v>
+        <v>29.40367240576936</v>
       </c>
       <c r="I30">
-        <v>2.547838838961952E-09</v>
+        <v>2.54783883896195E-09</v>
       </c>
       <c r="J30">
-        <v>1.688258454406545E-09</v>
+        <v>1.68825845440654E-09</v>
       </c>
       <c r="K30">
-        <v>0.000246262659747648</v>
+        <v>0.0002462626597476486</v>
       </c>
       <c r="L30">
         <v>0.1289306531119583</v>
       </c>
       <c r="M30">
-        <v>940.3812791380551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.128930286829213</v>
+      </c>
+      <c r="N30">
+        <v>940.3812791380553</v>
+      </c>
+      <c r="O30">
+        <v>3.662827452893301E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>72.2267117155526</v>
+        <v>72.22671171555255</v>
       </c>
       <c r="B31">
-        <v>32798.51495045464</v>
+        <v>32798.51495045472</v>
       </c>
       <c r="C31">
-        <v>55.55450534298942</v>
+        <v>55.5545053429896</v>
       </c>
       <c r="D31">
-        <v>29241.57141755117</v>
+        <v>29241.57141755118</v>
       </c>
       <c r="E31">
         <v>6040.810619807895</v>
       </c>
       <c r="F31">
-        <v>5451.547830133425</v>
+        <v>5451.547830133423</v>
       </c>
       <c r="G31">
-        <v>10.30955526802486</v>
+        <v>10.30955526802495</v>
       </c>
       <c r="H31">
-        <v>28.50678262455233</v>
+        <v>28.50678262455244</v>
       </c>
       <c r="I31">
-        <v>2.605541236352219E-09</v>
+        <v>2.605541236352216E-09</v>
       </c>
       <c r="J31">
-        <v>1.772489630820072E-09</v>
+        <v>1.772489630820069E-09</v>
       </c>
       <c r="K31">
-        <v>0.0002347548262364546</v>
+        <v>0.0002347548262364552</v>
       </c>
       <c r="L31">
         <v>0.1287032062132621</v>
       </c>
       <c r="M31">
-        <v>931.6639544256068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.1287028236616878</v>
+      </c>
+      <c r="N31">
+        <v>931.6639544256067</v>
+      </c>
+      <c r="O31">
+        <v>3.825515743249147E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>73.21445297559245</v>
+        <v>73.21445297559239</v>
       </c>
       <c r="B32">
-        <v>37655.36030467399</v>
+        <v>37655.36030467357</v>
       </c>
       <c r="C32">
-        <v>63.03970733332758</v>
+        <v>63.0397073333269</v>
       </c>
       <c r="D32">
         <v>29090.03568575206</v>
       </c>
       <c r="E32">
-        <v>6009.508666191406</v>
+        <v>6009.508666191416</v>
       </c>
       <c r="F32">
-        <v>5413.475457009212</v>
+        <v>5413.475457009222</v>
       </c>
       <c r="G32">
-        <v>9.925194376020395</v>
+        <v>9.925194376020457</v>
       </c>
       <c r="H32">
-        <v>27.72274547388708</v>
+        <v>27.72274547388715</v>
       </c>
       <c r="I32">
-        <v>2.665837418277449E-09</v>
+        <v>2.66583741827745E-09</v>
       </c>
       <c r="J32">
-        <v>1.860972930672786E-09</v>
+        <v>1.860972930672782E-09</v>
       </c>
       <c r="K32">
-        <v>0.0002242451654988383</v>
+        <v>0.0002242451654988389</v>
       </c>
       <c r="L32">
         <v>0.1284198523280755</v>
       </c>
       <c r="M32">
-        <v>922.878491473189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.1284194527608179</v>
+      </c>
+      <c r="N32">
+        <v>922.8784914731881</v>
+      </c>
+      <c r="O32">
+        <v>3.995672575544669E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>74.20219423563228</v>
+        <v>74.20219423563223</v>
       </c>
       <c r="B33">
-        <v>43055.80893459603</v>
+        <v>43055.80893459593</v>
       </c>
       <c r="C33">
-        <v>71.26556254134657</v>
+        <v>71.26556254134645</v>
       </c>
       <c r="D33">
-        <v>28940.07188093314</v>
+        <v>28940.07188093315</v>
       </c>
       <c r="E33">
-        <v>5978.601135252985</v>
+        <v>5978.601135252986</v>
       </c>
       <c r="F33">
-        <v>5375.928799162743</v>
+        <v>5375.92879916274</v>
       </c>
       <c r="G33">
-        <v>9.587927606910284</v>
+        <v>9.58792760691035</v>
       </c>
       <c r="H33">
-        <v>27.04076871854405</v>
+        <v>27.0407687185441</v>
       </c>
       <c r="I33">
         <v>2.728882335756997E-09</v>
@@ -1850,65 +2048,77 @@
         <v>1.953762003652102E-09</v>
       </c>
       <c r="K33">
-        <v>0.0002146135412060429</v>
+        <v>0.0002146135412060432</v>
       </c>
       <c r="L33">
         <v>0.1280753059142379</v>
       </c>
       <c r="M33">
-        <v>914.0437860307436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.1280748885868879</v>
+      </c>
+      <c r="N33">
+        <v>914.043786030743</v>
+      </c>
+      <c r="O33">
+        <v>4.173273499804837E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>75.18993549567213</v>
+        <v>75.18993549567206</v>
       </c>
       <c r="B34">
-        <v>49040.23901014384</v>
+        <v>49040.23901014361</v>
       </c>
       <c r="C34">
-        <v>80.27846335499416</v>
+        <v>80.27846335499386</v>
       </c>
       <c r="D34">
-        <v>28791.4745953357</v>
+        <v>28791.47459533572</v>
       </c>
       <c r="E34">
         <v>5947.975112544486</v>
       </c>
       <c r="F34">
-        <v>5338.801749732915</v>
+        <v>5338.801749732918</v>
       </c>
       <c r="G34">
-        <v>9.291822321482583</v>
+        <v>9.291822321482593</v>
       </c>
       <c r="H34">
-        <v>26.45116836972858</v>
+        <v>26.45116836972861</v>
       </c>
       <c r="I34">
-        <v>2.794841135001549E-09</v>
+        <v>2.794841135001541E-09</v>
       </c>
       <c r="J34">
-        <v>2.050894813145291E-09</v>
+        <v>2.050894813145282E-09</v>
       </c>
       <c r="K34">
-        <v>0.0002057553389156553</v>
+        <v>0.0002057553389156561</v>
       </c>
       <c r="L34">
-        <v>0.1276638465939633</v>
+        <v>0.1276638465939634</v>
       </c>
       <c r="M34">
-        <v>905.1763368554656</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.1276634107682217</v>
+      </c>
+      <c r="N34">
+        <v>905.1763368554666</v>
+      </c>
+      <c r="O34">
+        <v>4.358257417655406E-07</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>76.17767675571196</v>
+        <v>76.1776767557119</v>
       </c>
       <c r="B35">
-        <v>55650.28805207049</v>
+        <v>55650.28805207087</v>
       </c>
       <c r="C35">
-        <v>90.12597242126836</v>
+        <v>90.12597242126904</v>
       </c>
       <c r="D35">
         <v>28644.04991039786</v>
@@ -1920,203 +2130,233 @@
         <v>5301.997411845006</v>
       </c>
       <c r="G35">
-        <v>9.031575003923493</v>
+        <v>9.031575003923479</v>
       </c>
       <c r="H35">
-        <v>25.94528123838845</v>
+        <v>25.94528123838844</v>
       </c>
       <c r="I35">
-        <v>2.863890224108969E-09</v>
+        <v>2.863890224108967E-09</v>
       </c>
       <c r="J35">
-        <v>2.152393811115298E-09</v>
+        <v>2.152393811115293E-09</v>
       </c>
       <c r="K35">
-        <v>0.0001975799090258381</v>
+        <v>0.0001975799090258384</v>
       </c>
       <c r="L35">
-        <v>0.1271795390116598</v>
+        <v>0.1271795390116599</v>
       </c>
       <c r="M35">
-        <v>896.2901239530047</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.1271790839589141</v>
+      </c>
+      <c r="N35">
+        <v>896.290123953005</v>
+      </c>
+      <c r="O35">
+        <v>4.550527457801126E-07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>77.16541801575181</v>
+        <v>77.16541801575173</v>
       </c>
       <c r="B36">
-        <v>62928.79779677484</v>
+        <v>62928.7977967745</v>
       </c>
       <c r="C36">
-        <v>100.8568240808334</v>
+        <v>100.856824080833</v>
       </c>
       <c r="D36">
-        <v>28497.61434427175</v>
+        <v>28497.61434427176</v>
       </c>
       <c r="E36">
-        <v>5887.160845000216</v>
+        <v>5887.16084500022</v>
       </c>
       <c r="F36">
-        <v>5265.427164263193</v>
+        <v>5265.427164263195</v>
       </c>
       <c r="G36">
-        <v>8.802465090061457</v>
+        <v>8.80246509006151</v>
       </c>
       <c r="H36">
-        <v>25.5153795121938</v>
+        <v>25.51537951219388</v>
       </c>
       <c r="I36">
-        <v>2.936218426613898E-09</v>
+        <v>2.936218426613902E-09</v>
       </c>
       <c r="J36">
-        <v>2.258266474459646E-09</v>
+        <v>2.258266474459642E-09</v>
       </c>
       <c r="K36">
-        <v>0.000190008867756992</v>
+        <v>0.0001900088677569922</v>
       </c>
       <c r="L36">
-        <v>0.1266164847689735</v>
+        <v>0.1266164847689734</v>
       </c>
       <c r="M36">
-        <v>887.3966172250999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.1266160097737144</v>
+      </c>
+      <c r="N36">
+        <v>887.3966172250992</v>
+      </c>
+      <c r="O36">
+        <v>4.749952590154371E-07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>78.15315927579164</v>
+        <v>78.15315927579157</v>
       </c>
       <c r="B37">
-        <v>70919.75767207211</v>
+        <v>70919.75767207175</v>
       </c>
       <c r="C37">
-        <v>112.5209336231138</v>
+        <v>112.5209336231133</v>
       </c>
       <c r="D37">
-        <v>28351.99388195493</v>
+        <v>28351.99388195494</v>
       </c>
       <c r="E37">
-        <v>5856.788967924153</v>
+        <v>5856.788967924155</v>
       </c>
       <c r="F37">
-        <v>5229.00980527413</v>
+        <v>5229.009805274137</v>
       </c>
       <c r="G37">
-        <v>8.600307524941055</v>
+        <v>8.600307524941016</v>
       </c>
       <c r="H37">
-        <v>25.15458877786822</v>
+        <v>25.15458877786816</v>
       </c>
       <c r="I37">
-        <v>3.012028234358798E-09</v>
+        <v>3.012028234358784E-09</v>
       </c>
       <c r="J37">
-        <v>2.368506192770464E-09</v>
+        <v>2.368506192770454E-09</v>
       </c>
       <c r="K37">
-        <v>0.0001829744351070161</v>
+        <v>0.0001829744351070168</v>
       </c>
       <c r="L37">
-        <v>0.1259690925098886</v>
+        <v>0.1259690925098887</v>
       </c>
       <c r="M37">
-        <v>878.5048805760122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.1259685968728952</v>
+      </c>
+      <c r="N37">
+        <v>878.504880576014</v>
+      </c>
+      <c r="O37">
+        <v>4.95636993489399E-07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>79.14090053583148</v>
+        <v>79.14090053583141</v>
       </c>
       <c r="B38">
-        <v>79668.24734030705</v>
+        <v>79668.2473403061</v>
       </c>
       <c r="C38">
-        <v>125.1694148260048</v>
+        <v>125.1694148260034</v>
       </c>
       <c r="D38">
         <v>28207.02307943586</v>
       </c>
       <c r="E38">
-        <v>5826.329700124896</v>
+        <v>5826.329700124897</v>
       </c>
       <c r="F38">
-        <v>5192.670770865425</v>
+        <v>5192.670770865424</v>
       </c>
       <c r="G38">
-        <v>8.421405561273781</v>
+        <v>8.421405561273785</v>
       </c>
       <c r="H38">
-        <v>24.85681044685981</v>
+        <v>24.85681044685982</v>
       </c>
       <c r="I38">
-        <v>3.091537173640954E-09</v>
+        <v>3.091537173640956E-09</v>
       </c>
       <c r="J38">
-        <v>2.483093484884754E-09</v>
+        <v>2.48309348488475E-09</v>
       </c>
       <c r="K38">
-        <v>0.0001764179069412581</v>
+        <v>0.0001764179069412583</v>
       </c>
       <c r="L38">
         <v>0.1252323557978625</v>
       </c>
       <c r="M38">
-        <v>869.6217411794047</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.1252318388390927</v>
+      </c>
+      <c r="N38">
+        <v>869.6217411794046</v>
+      </c>
+      <c r="O38">
+        <v>5.169587697369551E-07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>80.1286417958713</v>
+        <v>80.12864179587125</v>
       </c>
       <c r="B39">
-        <v>89220.37873506045</v>
+        <v>89220.37873506028</v>
       </c>
       <c r="C39">
-        <v>138.854606247097</v>
+        <v>138.8546062470968</v>
       </c>
       <c r="D39">
-        <v>28062.54423414842</v>
+        <v>28062.54423414843</v>
       </c>
       <c r="E39">
-        <v>5795.707411823413</v>
+        <v>5795.707411823415</v>
       </c>
       <c r="F39">
-        <v>5156.341422574266</v>
+        <v>5156.341422574267</v>
       </c>
       <c r="G39">
         <v>8.262504880966405</v>
       </c>
       <c r="H39">
-        <v>24.61664918481017</v>
+        <v>24.6166491848102</v>
       </c>
       <c r="I39">
-        <v>3.174979300288387E-09</v>
+        <v>3.17497930028838E-09</v>
       </c>
       <c r="J39">
-        <v>2.601997510659079E-09</v>
+        <v>2.601997510659072E-09</v>
       </c>
       <c r="K39">
-        <v>0.0001702883045865446</v>
+        <v>0.0001702883045865451</v>
       </c>
       <c r="L39">
-        <v>0.1244021331408636</v>
+        <v>0.1244021331408637</v>
       </c>
       <c r="M39">
-        <v>860.7519988629042</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.1244015942019998</v>
+      </c>
+      <c r="N39">
+        <v>860.7519988629053</v>
+      </c>
+      <c r="O39">
+        <v>5.389388638549668E-07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>81.11638305591116</v>
+        <v>81.11638305591109</v>
       </c>
       <c r="B40">
-        <v>99623.23798742345</v>
+        <v>99623.2379874226</v>
       </c>
       <c r="C40">
-        <v>153.6301067530308</v>
+        <v>153.6301067530296</v>
       </c>
       <c r="D40">
-        <v>27918.40661481836</v>
+        <v>27918.40661481837</v>
       </c>
       <c r="E40">
         <v>5764.85171441183</v>
@@ -2125,303 +2365,345 @@
         <v>5119.958399984839</v>
       </c>
       <c r="G40">
-        <v>8.120749787002426</v>
+        <v>8.120749787002424</v>
       </c>
       <c r="H40">
         <v>24.42934567293472</v>
       </c>
       <c r="I40">
-        <v>3.262606841267522E-09</v>
+        <v>3.26260684126752E-09</v>
       </c>
       <c r="J40">
-        <v>2.72517783565051E-09</v>
+        <v>2.725177835650504E-09</v>
       </c>
       <c r="K40">
-        <v>0.0001645412120951877</v>
+        <v>0.000164541212095188</v>
       </c>
       <c r="L40">
-        <v>0.1234754286427633</v>
+        <v>0.1234754286427634</v>
       </c>
       <c r="M40">
-        <v>851.8986558148509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.1234748670893659</v>
+      </c>
+      <c r="N40">
+        <v>851.8986558148512</v>
+      </c>
+      <c r="O40">
+        <v>5.615533974815385E-07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>82.10412431595098</v>
+        <v>82.10412431595091</v>
       </c>
       <c r="B41">
-        <v>110924.8276082216</v>
+        <v>110924.8276082209</v>
       </c>
       <c r="C41">
-        <v>169.5508208115738</v>
+        <v>169.5508208115728</v>
       </c>
       <c r="D41">
-        <v>27774.4657444788</v>
+        <v>27774.46574447881</v>
       </c>
       <c r="E41">
-        <v>5733.696868766221</v>
+        <v>5733.696868766223</v>
       </c>
       <c r="F41">
-        <v>5083.463032671444</v>
+        <v>5083.463032671445</v>
       </c>
       <c r="G41">
-        <v>7.993641953961474</v>
+        <v>7.993641953961484</v>
       </c>
       <c r="H41">
-        <v>24.29071482511095</v>
+        <v>24.29071482511094</v>
       </c>
       <c r="I41">
-        <v>3.354692002675523E-09</v>
+        <v>3.354692002675516E-09</v>
       </c>
       <c r="J41">
-        <v>2.852586400258193E-09</v>
+        <v>2.852586400258185E-09</v>
       </c>
       <c r="K41">
-        <v>0.0001591377924282626</v>
+        <v>0.0001591377924282628</v>
       </c>
       <c r="L41">
-        <v>0.1224506729724068</v>
+        <v>0.1224506729724069</v>
       </c>
       <c r="M41">
-        <v>843.0631516547226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.1224500881956477</v>
+      </c>
+      <c r="N41">
+        <v>843.063151654723</v>
+      </c>
+      <c r="O41">
+        <v>5.847767591203188E-07</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>83.09186557599084</v>
+        <v>83.09186557599077</v>
       </c>
       <c r="B42">
-        <v>123174.0092648429</v>
+        <v>123174.0092648414</v>
       </c>
       <c r="C42">
-        <v>186.6730141293936</v>
+        <v>186.6730141293914</v>
       </c>
       <c r="D42">
-        <v>27630.582731043</v>
+        <v>27630.58273104301</v>
       </c>
       <c r="E42">
-        <v>5702.181246190151</v>
+        <v>5702.181246190152</v>
       </c>
       <c r="F42">
-        <v>5046.800806360589</v>
+        <v>5046.800806360588</v>
       </c>
       <c r="G42">
-        <v>7.879002027274793</v>
+        <v>7.879002027274842</v>
       </c>
       <c r="H42">
-        <v>24.19708943419459</v>
+        <v>24.19708943419462</v>
       </c>
       <c r="I42">
-        <v>3.451528966571809E-09</v>
+        <v>3.451528966571808E-09</v>
       </c>
       <c r="J42">
-        <v>2.984169641569832E-09</v>
+        <v>2.984169641569823E-09</v>
       </c>
       <c r="K42">
-        <v>0.000154043964306619</v>
+        <v>0.0001540439643066193</v>
       </c>
       <c r="L42">
         <v>0.121328000413662</v>
       </c>
       <c r="M42">
-        <v>834.2455931131776</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.1213273918316172</v>
+      </c>
+      <c r="N42">
+        <v>834.2455931131773</v>
+      </c>
+      <c r="O42">
+        <v>6.085820448404226E-07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>84.07960683603066</v>
+        <v>84.07960683603059</v>
       </c>
       <c r="B43">
-        <v>136420.4474654657</v>
+        <v>136420.4474654651</v>
       </c>
       <c r="C43">
-        <v>205.0543802979615</v>
+        <v>205.0543802979608</v>
       </c>
       <c r="D43">
-        <v>27486.62364036037</v>
+        <v>27486.62364036038</v>
       </c>
       <c r="E43">
-        <v>5670.246836800463</v>
+        <v>5670.246836800469</v>
       </c>
       <c r="F43">
-        <v>5009.920878171942</v>
+        <v>5009.920878171948</v>
       </c>
       <c r="G43">
-        <v>7.774934211686925</v>
+        <v>7.774934211686929</v>
       </c>
       <c r="H43">
-        <v>24.14526911357634</v>
+        <v>24.1452691135763</v>
       </c>
       <c r="I43">
-        <v>3.553436102122512E-09</v>
+        <v>3.553436102122498E-09</v>
       </c>
       <c r="J43">
-        <v>3.119870715629461E-09</v>
+        <v>3.119870715629448E-09</v>
       </c>
       <c r="K43">
-        <v>0.0001492297178626179</v>
+        <v>0.0001492297178626185</v>
       </c>
       <c r="L43">
-        <v>0.1201095076418306</v>
+        <v>0.1201095076418307</v>
       </c>
       <c r="M43">
-        <v>825.4449710513948</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.1201088747003241</v>
+      </c>
+      <c r="N43">
+        <v>825.4449710513959</v>
+      </c>
+      <c r="O43">
+        <v>6.329415066183773E-07</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>85.06734809607052</v>
+        <v>85.06734809607043</v>
       </c>
       <c r="B44">
-        <v>150714.554441078</v>
+        <v>150714.5544410774</v>
       </c>
       <c r="C44">
-        <v>224.7541192141916</v>
+        <v>224.754119214191</v>
       </c>
       <c r="D44">
-        <v>27342.4589071545</v>
+        <v>27342.45890715451</v>
       </c>
       <c r="E44">
-        <v>5637.838800311705</v>
+        <v>5637.838800311709</v>
       </c>
       <c r="F44">
-        <v>4972.775635958972</v>
+        <v>4972.775635958978</v>
       </c>
       <c r="G44">
-        <v>7.679793878233597</v>
+        <v>7.679793878233635</v>
       </c>
       <c r="H44">
-        <v>24.13247432602874</v>
+        <v>24.13247432602876</v>
       </c>
       <c r="I44">
-        <v>3.660758420041407E-09</v>
+        <v>3.660758420041396E-09</v>
       </c>
       <c r="J44">
-        <v>3.259631769861565E-09</v>
+        <v>3.259631769861554E-09</v>
       </c>
       <c r="K44">
-        <v>0.0001446685470618632</v>
+        <v>0.0001446685470618636</v>
       </c>
       <c r="L44">
-        <v>0.1187994649400875</v>
+        <v>0.1187994649400877</v>
       </c>
       <c r="M44">
-        <v>816.659360318611</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.1187988071130904</v>
+      </c>
+      <c r="N44">
+        <v>816.6593603186118</v>
+      </c>
+      <c r="O44">
+        <v>6.578269973177845E-07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>86.05508935611034</v>
+        <v>86.05508935611027</v>
       </c>
       <c r="B45">
         <v>166107.4364963192</v>
       </c>
       <c r="C45">
-        <v>245.8330281722034</v>
+        <v>245.8330281722035</v>
       </c>
       <c r="D45">
-        <v>27197.96277965795</v>
+        <v>27197.96277965796</v>
       </c>
       <c r="E45">
-        <v>5604.905054366282</v>
+        <v>5604.905054366293</v>
       </c>
       <c r="F45">
-        <v>4935.320296978079</v>
+        <v>4935.320296978089</v>
       </c>
       <c r="G45">
-        <v>7.592158138307309</v>
+        <v>7.592158138307338</v>
       </c>
       <c r="H45">
         <v>24.15630524417027</v>
       </c>
       <c r="I45">
-        <v>3.773870303401718E-09</v>
+        <v>3.77387030340171E-09</v>
       </c>
       <c r="J45">
-        <v>3.403396219557303E-09</v>
+        <v>3.403396219557293E-09</v>
       </c>
       <c r="K45">
-        <v>0.0001403369785475521</v>
+        <v>0.0001403369785475524</v>
       </c>
       <c r="L45">
-        <v>0.1174044353993495</v>
+        <v>0.1174044353993496</v>
       </c>
       <c r="M45">
-        <v>807.8861000623768</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.1174037521889471</v>
+      </c>
+      <c r="N45">
+        <v>807.8861000623771</v>
+      </c>
+      <c r="O45">
+        <v>6.832104024631182E-07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>87.04283061615018</v>
+        <v>87.0428306161501</v>
       </c>
       <c r="B46">
-        <v>182650.842084994</v>
+        <v>182650.8420849933</v>
       </c>
       <c r="C46">
-        <v>268.3536066819082</v>
+        <v>268.3536066819074</v>
       </c>
       <c r="D46">
-        <v>27053.01279412352</v>
+        <v>27053.01279412353</v>
       </c>
       <c r="E46">
-        <v>5571.395895772806</v>
+        <v>5571.395895772815</v>
       </c>
       <c r="F46">
-        <v>4897.512541348644</v>
+        <v>4897.512541348652</v>
       </c>
       <c r="G46">
-        <v>7.510799276441681</v>
+        <v>7.510799276441698</v>
       </c>
       <c r="H46">
-        <v>24.21470515941932</v>
+        <v>24.21470515941938</v>
       </c>
       <c r="I46">
-        <v>3.893178552670165E-09</v>
+        <v>3.893178552670163E-09</v>
       </c>
       <c r="J46">
-        <v>3.55111098815706E-09</v>
+        <v>3.551110988157046E-09</v>
       </c>
       <c r="K46">
-        <v>0.0001362141790788543</v>
+        <v>0.0001362141790788545</v>
       </c>
       <c r="L46">
-        <v>0.1159332494865216</v>
+        <v>0.1159332494865218</v>
       </c>
       <c r="M46">
-        <v>799.1219536587218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.1159325404224714</v>
+      </c>
+      <c r="N46">
+        <v>799.1219536587221</v>
+      </c>
+      <c r="O46">
+        <v>7.090640504048672E-07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>88.03057187619001</v>
+        <v>88.03057187618994</v>
       </c>
       <c r="B47">
-        <v>200397.1118552185</v>
+        <v>200397.1118552158</v>
       </c>
       <c r="C47">
-        <v>292.3801762617894</v>
+        <v>292.3801762617853</v>
       </c>
       <c r="D47">
         <v>26907.48927571229</v>
       </c>
       <c r="E47">
-        <v>5537.263650239654</v>
+        <v>5537.26365023966</v>
       </c>
       <c r="F47">
-        <v>4859.312176009696</v>
+        <v>4859.312176009703</v>
       </c>
       <c r="G47">
-        <v>7.434660895046805</v>
+        <v>7.434660895046816</v>
       </c>
       <c r="H47">
-        <v>24.30592814446601</v>
+        <v>24.30592814446602</v>
       </c>
       <c r="I47">
-        <v>4.019125788406994E-09</v>
+        <v>4.019125788406992E-09</v>
       </c>
       <c r="J47">
-        <v>3.702728678007624E-09</v>
+        <v>3.70272867800762E-09</v>
       </c>
       <c r="K47">
         <v>0.0001322816264839624</v>
@@ -2430,62 +2712,74 @@
         <v>0.1143967887506246</v>
       </c>
       <c r="M47">
-        <v>790.3632485181395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.1143960533895305</v>
+      </c>
+      <c r="N47">
+        <v>790.3632485181396</v>
+      </c>
+      <c r="O47">
+        <v>7.353610940998831E-07</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>89.01831313622986</v>
+        <v>89.01831313622976</v>
       </c>
       <c r="B48">
-        <v>219399.1309030176</v>
+        <v>219399.1309030169</v>
       </c>
       <c r="C48">
-        <v>317.979016681269</v>
+        <v>317.9790166812683</v>
       </c>
       <c r="D48">
-        <v>26761.27486253865</v>
+        <v>26761.27486253867</v>
       </c>
       <c r="E48">
-        <v>5502.46234641282</v>
+        <v>5502.462346412824</v>
       </c>
       <c r="F48">
-        <v>4820.680825119626</v>
+        <v>4820.680825119633</v>
       </c>
       <c r="G48">
-        <v>7.362836600181081</v>
+        <v>7.362836600181049</v>
       </c>
       <c r="H48">
-        <v>24.42851067428473</v>
+        <v>24.42851067428463</v>
       </c>
       <c r="I48">
-        <v>4.152194261637307E-09</v>
+        <v>4.152194261637284E-09</v>
       </c>
       <c r="J48">
-        <v>3.858209645799188E-09</v>
+        <v>3.85820964579917E-09</v>
       </c>
       <c r="K48">
-        <v>0.0001285228316912033</v>
+        <v>0.0001285228316912038</v>
       </c>
       <c r="L48">
-        <v>0.1128075573113086</v>
+        <v>0.1128075573113089</v>
       </c>
       <c r="M48">
-        <v>781.6059967444792</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.1128067952354494</v>
+      </c>
+      <c r="N48">
+        <v>781.6059967444808</v>
+      </c>
+      <c r="O48">
+        <v>7.620758594109388E-07</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>90.00605439626969</v>
+        <v>90.00605439626962</v>
       </c>
       <c r="B49">
-        <v>239710.2834720282</v>
+        <v>239710.2834720273</v>
       </c>
       <c r="C49">
-        <v>345.218520396745</v>
+        <v>345.2185203967438</v>
       </c>
       <c r="D49">
-        <v>26614.25404989815</v>
+        <v>26614.25404989817</v>
       </c>
       <c r="E49">
         <v>5466.947410239266</v>
@@ -2494,139 +2788,157 @@
         <v>4781.581643076035</v>
       </c>
       <c r="G49">
-        <v>7.294551044181147</v>
+        <v>7.294551044181159</v>
       </c>
       <c r="H49">
-        <v>24.58124691967222</v>
+        <v>24.58124691967219</v>
       </c>
       <c r="I49">
-        <v>4.292910129617272E-09</v>
+        <v>4.292910129617262E-09</v>
       </c>
       <c r="J49">
-        <v>4.017523964512328E-09</v>
+        <v>4.017523964512318E-09</v>
       </c>
       <c r="K49">
-        <v>0.0001249231017711428</v>
+        <v>0.0001249231017711431</v>
       </c>
       <c r="L49">
-        <v>0.1111790599552131</v>
+        <v>0.1111790599552133</v>
       </c>
       <c r="M49">
-        <v>772.8459980634748</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.1111782707710568</v>
+      </c>
+      <c r="N49">
+        <v>772.8459980634751</v>
+      </c>
+      <c r="O49">
+        <v>7.891841564635689E-07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>90.99379565630954</v>
+        <v>90.99379565630944</v>
       </c>
       <c r="B50">
-        <v>261384.4103411105</v>
+        <v>261384.4103411096</v>
       </c>
       <c r="C50">
-        <v>374.1693672399235</v>
+        <v>374.1693672399227</v>
       </c>
       <c r="D50">
-        <v>26466.3127519162</v>
+        <v>26466.31275191623</v>
       </c>
       <c r="E50">
-        <v>5430.675375872734</v>
+        <v>5430.675375872737</v>
       </c>
       <c r="F50">
-        <v>4741.979046546202</v>
+        <v>4741.979046546208</v>
       </c>
       <c r="G50">
-        <v>7.229143135844056</v>
+        <v>7.22914313584403</v>
       </c>
       <c r="H50">
-        <v>24.76316744293985</v>
+        <v>24.7631674429398</v>
       </c>
       <c r="I50">
-        <v>4.44184826382278E-09</v>
+        <v>4.441848263822758E-09</v>
       </c>
       <c r="J50">
-        <v>4.180653261025388E-09</v>
+        <v>4.180653261025367E-09</v>
       </c>
       <c r="K50">
-        <v>0.0001214693359553826</v>
+        <v>0.000121469335955383</v>
       </c>
       <c r="L50">
-        <v>0.1095250501440987</v>
+        <v>0.1095250501440989</v>
       </c>
       <c r="M50">
-        <v>764.0789266690427</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.1095242334805468</v>
+      </c>
+      <c r="N50">
+        <v>764.0789266690442</v>
+      </c>
+      <c r="O50">
+        <v>8.166635521223204E-07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>91.98153691634938</v>
+        <v>91.98153691634928</v>
       </c>
       <c r="B51">
-        <v>284475.7691515395</v>
+        <v>284475.769151537</v>
       </c>
       <c r="C51">
-        <v>404.9047217836098</v>
+        <v>404.9047217836064</v>
       </c>
       <c r="D51">
-        <v>26317.33787804054</v>
+        <v>26317.33787804056</v>
       </c>
       <c r="E51">
-        <v>5393.603609515011</v>
+        <v>5393.603609515014</v>
       </c>
       <c r="F51">
         <v>4701.838462091328</v>
       </c>
       <c r="G51">
-        <v>7.166051229747809</v>
+        <v>7.166051229747814</v>
       </c>
       <c r="H51">
-        <v>24.97352104604985</v>
+        <v>24.97352104604982</v>
       </c>
       <c r="I51">
-        <v>4.599637667755639E-09</v>
+        <v>4.599637667755635E-09</v>
       </c>
       <c r="J51">
-        <v>4.347592425240714E-09</v>
+        <v>4.347592425240701E-09</v>
       </c>
       <c r="K51">
-        <v>0.0001181498482893135</v>
+        <v>0.0001181498482893137</v>
       </c>
       <c r="L51">
-        <v>0.107858744854968</v>
+        <v>0.1078587448549681</v>
       </c>
       <c r="M51">
-        <v>755.3004037181186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.1078579003613652</v>
+      </c>
+      <c r="N51">
+        <v>755.3004037181184</v>
+      </c>
+      <c r="O51">
+        <v>8.44493602965703E-07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>92.96927817638922</v>
+        <v>92.96927817638912</v>
       </c>
       <c r="B52">
-        <v>309038.9979406103</v>
+        <v>309038.9979406083</v>
       </c>
       <c r="C52">
-        <v>437.5004562343407</v>
+        <v>437.5004562343382</v>
       </c>
       <c r="D52">
         <v>26167.21692195725</v>
       </c>
       <c r="E52">
-        <v>5355.690042739683</v>
+        <v>5355.690042739688</v>
       </c>
       <c r="F52">
-        <v>4661.126086136378</v>
+        <v>4661.12608613638</v>
       </c>
       <c r="G52">
-        <v>7.104800111484542</v>
+        <v>7.10480011148454</v>
       </c>
       <c r="H52">
-        <v>25.21175954590154</v>
+        <v>25.21175954590158</v>
       </c>
       <c r="I52">
-        <v>4.766967594940582E-09</v>
+        <v>4.766967594940588E-09</v>
       </c>
       <c r="J52">
-        <v>4.518351192480745E-09</v>
+        <v>4.518351192480736E-09</v>
       </c>
       <c r="K52">
         <v>0.0001149542119528229</v>
@@ -2635,2016 +2947,2316 @@
         <v>0.1061921134097284</v>
       </c>
       <c r="M52">
-        <v>746.5060571853988</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.1061912407536792</v>
+      </c>
+      <c r="N52">
+        <v>746.5060571853986</v>
+      </c>
+      <c r="O52">
+        <v>8.726560492760325E-07</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>93.95701943642906</v>
+        <v>93.95701943642896</v>
       </c>
       <c r="B53">
-        <v>335129.082170172</v>
+        <v>335129.0821701647</v>
       </c>
       <c r="C53">
-        <v>472.0354021925023</v>
+        <v>472.0354021924915</v>
       </c>
       <c r="D53">
-        <v>26015.83756064331</v>
+        <v>26015.83756064332</v>
       </c>
       <c r="E53">
-        <v>5316.89291197662</v>
+        <v>5316.892911976624</v>
       </c>
       <c r="F53">
         <v>4619.808654181614</v>
       </c>
       <c r="G53">
-        <v>7.044989603781652</v>
+        <v>7.044989603781657</v>
       </c>
       <c r="H53">
-        <v>25.47752527883364</v>
+        <v>25.47752527883363</v>
       </c>
       <c r="I53">
-        <v>4.944594472694441E-09</v>
+        <v>4.944594472694428E-09</v>
       </c>
       <c r="J53">
-        <v>4.692955605872092E-09</v>
+        <v>4.69295560587208E-09</v>
       </c>
       <c r="K53">
-        <v>0.000111873121384954</v>
+        <v>0.0001118731213849543</v>
       </c>
       <c r="L53">
-        <v>0.1045353305540749</v>
+        <v>0.104535330554075</v>
       </c>
       <c r="M53">
-        <v>737.6915707036536</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.1045344294191036</v>
+      </c>
+      <c r="N53">
+        <v>737.6915707036543</v>
+      </c>
+      <c r="O53">
+        <v>9.011349714233151E-07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>94.9447606964689</v>
+        <v>94.9447606964688</v>
       </c>
       <c r="B54">
-        <v>362801.3255654794</v>
+        <v>362801.3255654746</v>
       </c>
       <c r="C54">
-        <v>508.5916351853333</v>
+        <v>508.5916351853265</v>
       </c>
       <c r="D54">
-        <v>25863.08726137765</v>
+        <v>25863.08726137766</v>
       </c>
       <c r="E54">
-        <v>5277.170500942189</v>
+        <v>5277.17050094219</v>
       </c>
       <c r="F54">
-        <v>4577.853216268627</v>
+        <v>4577.85321626863</v>
       </c>
       <c r="G54">
-        <v>6.986284628629117</v>
+        <v>6.986284628629091</v>
       </c>
       <c r="H54">
-        <v>25.77064116616798</v>
+        <v>25.77064116616791</v>
       </c>
       <c r="I54">
-        <v>5.133349755417692E-09</v>
+        <v>5.133349755417673E-09</v>
       </c>
       <c r="J54">
-        <v>4.871449369455309E-09</v>
+        <v>4.871449369455297E-09</v>
       </c>
       <c r="K54">
-        <v>0.000108898269219257</v>
+        <v>0.0001088982692192573</v>
       </c>
       <c r="L54">
-        <v>0.1028964466569094</v>
+        <v>0.1028964466569096</v>
       </c>
       <c r="M54">
-        <v>728.8527228895624</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.1028955167399989</v>
+      </c>
+      <c r="N54">
+        <v>728.8527228895634</v>
+      </c>
+      <c r="O54">
+        <v>9.299169107060243E-07</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>95.93250195650873</v>
+        <v>95.93250195650863</v>
       </c>
       <c r="B55">
-        <v>392111.3251134825</v>
+        <v>392111.3251134775</v>
       </c>
       <c r="C55">
-        <v>547.2547965290388</v>
+        <v>547.2547965290316</v>
       </c>
       <c r="D55">
-        <v>25708.85289461775</v>
+        <v>25708.85289461776</v>
       </c>
       <c r="E55">
-        <v>5236.480882884219</v>
+        <v>5236.480882884227</v>
       </c>
       <c r="F55">
-        <v>4535.226915804838</v>
+        <v>4535.226915804846</v>
       </c>
       <c r="G55">
-        <v>6.928406571882222</v>
+        <v>6.928406571882202</v>
       </c>
       <c r="H55">
-        <v>26.09110320462326</v>
+        <v>26.09110320462317</v>
       </c>
       <c r="I55">
-        <v>5.334148852941836E-09</v>
+        <v>5.334148852941805E-09</v>
       </c>
       <c r="J55">
-        <v>5.053895105872719E-09</v>
+        <v>5.053895105872696E-09</v>
       </c>
       <c r="K55">
-        <v>0.0001060222357176326</v>
+        <v>0.0001060222357176329</v>
       </c>
       <c r="L55">
-        <v>0.1012812833474901</v>
+        <v>0.1012812833474903</v>
       </c>
       <c r="M55">
-        <v>719.9854185080002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.1012803243565331</v>
+      </c>
+      <c r="N55">
+        <v>719.9854185080019</v>
+      </c>
+      <c r="O55">
+        <v>9.58990957120707E-07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>96.92024321654857</v>
+        <v>96.92024321654849</v>
       </c>
       <c r="B56">
-        <v>423114.9506085438</v>
+        <v>423114.9506085395</v>
       </c>
       <c r="C56">
-        <v>588.1144578218882</v>
+        <v>588.1144578218824</v>
       </c>
       <c r="D56">
-        <v>25553.02035071058</v>
+        <v>25553.02035071059</v>
       </c>
       <c r="E56">
-        <v>5194.781659570879</v>
+        <v>5194.78165957088</v>
       </c>
       <c r="F56">
-        <v>4491.896768913941</v>
+        <v>4491.896768913939</v>
       </c>
       <c r="G56">
-        <v>6.871125808737155</v>
+        <v>6.871125808737213</v>
       </c>
       <c r="H56">
-        <v>26.43907527971914</v>
+        <v>26.43907527971919</v>
       </c>
       <c r="I56">
-        <v>5.548001305684344E-09</v>
+        <v>5.548001305684342E-09</v>
       </c>
       <c r="J56">
-        <v>5.240375534790665E-09</v>
+        <v>5.240375534790652E-09</v>
       </c>
       <c r="K56">
-        <v>0.0001032383889187921</v>
+        <v>0.0001032383889187922</v>
       </c>
       <c r="L56">
-        <v>0.09969352473086326</v>
+        <v>0.09969352473086328</v>
       </c>
       <c r="M56">
-        <v>711.0857126726394</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.09969253638205645</v>
+      </c>
+      <c r="N56">
+        <v>711.0857126726389</v>
+      </c>
+      <c r="O56">
+        <v>9.883488068217223E-07</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>97.90798447658841</v>
+        <v>97.90798447658831</v>
       </c>
       <c r="B57">
-        <v>455868.3291789652</v>
+        <v>455868.3291789634</v>
       </c>
       <c r="C57">
-        <v>631.2645342261848</v>
+        <v>631.2645342261829</v>
       </c>
       <c r="D57">
-        <v>25395.47415844167</v>
+        <v>25395.4741584417</v>
       </c>
       <c r="E57">
-        <v>5152.029693990086</v>
+        <v>5152.029693990085</v>
       </c>
       <c r="F57">
-        <v>4447.829441516263</v>
+        <v>4447.829441516264</v>
       </c>
       <c r="G57">
-        <v>6.814255260543479</v>
+        <v>6.814255260543484</v>
       </c>
       <c r="H57">
-        <v>26.81488623723673</v>
+        <v>26.81488623723661</v>
       </c>
       <c r="I57">
-        <v>5.776022410053967E-09</v>
+        <v>5.776022410053915E-09</v>
       </c>
       <c r="J57">
-        <v>5.43099458983201E-09</v>
+        <v>5.430994589831984E-09</v>
       </c>
       <c r="K57">
-        <v>0.0001005407941244278</v>
+        <v>0.0001005407941244282</v>
       </c>
       <c r="L57">
-        <v>0.09813495099841417</v>
+        <v>0.09813495099841439</v>
       </c>
       <c r="M57">
-        <v>702.1498291260159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.09813393301362229</v>
+      </c>
+      <c r="N57">
+        <v>702.1498291260181</v>
+      </c>
+      <c r="O57">
+        <v>1.017984792094208E-06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>98.89572573662825</v>
+        <v>98.89572573662814</v>
       </c>
       <c r="B58">
-        <v>490427.8352783981</v>
+        <v>490427.835278392</v>
       </c>
       <c r="C58">
-        <v>676.8037536769167</v>
+        <v>676.8037536769081</v>
       </c>
       <c r="D58">
-        <v>25236.09710343251</v>
+        <v>25236.09710343253</v>
       </c>
       <c r="E58">
-        <v>5108.180833740632</v>
+        <v>5108.180833740643</v>
       </c>
       <c r="F58">
-        <v>4402.991021351892</v>
+        <v>4402.991021351899</v>
       </c>
       <c r="G58">
-        <v>6.757644865337899</v>
+        <v>6.757644865337879</v>
       </c>
       <c r="H58">
-        <v>27.21902918808261</v>
+        <v>27.21902918808256</v>
       </c>
       <c r="I58">
-        <v>6.019446536016175E-09</v>
+        <v>6.019446536016158E-09</v>
       </c>
       <c r="J58">
-        <v>5.625878492874305E-09</v>
+        <v>5.625878492874288E-09</v>
       </c>
       <c r="K58">
-        <v>9.792413165772298E-05</v>
+        <v>9.79241316577232E-05</v>
       </c>
       <c r="L58">
-        <v>0.09660575445127211</v>
+        <v>0.09660575445127223</v>
       </c>
       <c r="M58">
-        <v>693.1741734932555</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.09660470655538558</v>
+      </c>
+      <c r="N58">
+        <v>693.1741734932563</v>
+      </c>
+      <c r="O58">
+        <v>1.047895886646515E-06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>99.88346699666809</v>
+        <v>99.88346699666798</v>
       </c>
       <c r="B59">
-        <v>526850.0866821549</v>
+        <v>526850.0866821496</v>
       </c>
       <c r="C59">
-        <v>724.8361902766718</v>
+        <v>724.8361902766645</v>
       </c>
       <c r="D59">
-        <v>25074.76984436869</v>
+        <v>25074.76984436871</v>
       </c>
       <c r="E59">
-        <v>5063.18962208795</v>
+        <v>5063.189622087961</v>
       </c>
       <c r="F59">
-        <v>4357.346782139406</v>
+        <v>4357.346782139414</v>
       </c>
       <c r="G59">
-        <v>6.70117685597091</v>
+        <v>6.701176855970917</v>
       </c>
       <c r="H59">
-        <v>27.6521630664378</v>
+        <v>27.65216306643782</v>
       </c>
       <c r="I59">
-        <v>6.279642425642635E-09</v>
+        <v>6.279642425642615E-09</v>
       </c>
       <c r="J59">
-        <v>5.825176805259604E-09</v>
+        <v>5.825176805259585E-09</v>
       </c>
       <c r="K59">
-        <v>9.538362206579513E-05</v>
+        <v>9.538362206579542E-05</v>
       </c>
       <c r="L59">
-        <v>0.09510488411957894</v>
+        <v>0.0951048841195791</v>
       </c>
       <c r="M59">
-        <v>684.1553422634345</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.0951038060378902</v>
+      </c>
+      <c r="N59">
+        <v>684.1553422634354</v>
+      </c>
+      <c r="O59">
+        <v>1.078081688890886E-06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>100.8712082567079</v>
+        <v>100.8712082567078</v>
       </c>
       <c r="B60">
-        <v>565191.947089388</v>
+        <v>565191.9470893858</v>
       </c>
       <c r="C60">
-        <v>775.4718714205234</v>
+        <v>775.4718714205213</v>
       </c>
       <c r="D60">
-        <v>24911.37052497343</v>
+        <v>24911.37052497345</v>
       </c>
       <c r="E60">
         <v>5017.008993626594</v>
       </c>
       <c r="F60">
-        <v>4310.860937014294</v>
+        <v>4310.860937014297</v>
       </c>
       <c r="G60">
-        <v>6.644761750653254</v>
+        <v>6.644761750653267</v>
       </c>
       <c r="H60">
-        <v>28.1151165112489</v>
+        <v>28.11511651124879</v>
       </c>
       <c r="I60">
-        <v>6.558130818952441E-09</v>
+        <v>6.558130818952389E-09</v>
       </c>
       <c r="J60">
-        <v>6.029063475910889E-09</v>
+        <v>6.029063475910864E-09</v>
       </c>
       <c r="K60">
-        <v>9.29149581166922E-05</v>
+        <v>9.291495811669259E-05</v>
       </c>
       <c r="L60">
-        <v>0.09363037851267135</v>
+        <v>0.09363037851267157</v>
       </c>
       <c r="M60">
-        <v>675.0901281224751</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.09362926996828591</v>
+      </c>
+      <c r="N60">
+        <v>675.0901281224767</v>
+      </c>
+      <c r="O60">
+        <v>1.108544385654612E-06</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>101.8589495167478</v>
+        <v>101.8589495167477</v>
       </c>
       <c r="B61">
-        <v>605510.5359966782</v>
+        <v>605510.5359966721</v>
       </c>
       <c r="C61">
-        <v>828.8274696630385</v>
+        <v>828.8274696630301</v>
       </c>
       <c r="D61">
-        <v>24745.77437952207</v>
+        <v>24745.77437952208</v>
       </c>
       <c r="E61">
-        <v>4969.58995143689</v>
+        <v>4969.589951436898</v>
       </c>
       <c r="F61">
-        <v>4263.496378310261</v>
+        <v>4263.496378310268</v>
       </c>
       <c r="G61">
-        <v>6.58833497103696</v>
+        <v>6.588334971036967</v>
       </c>
       <c r="H61">
-        <v>28.60889419869586</v>
+        <v>28.60889419869576</v>
       </c>
       <c r="I61">
-        <v>6.856604824151674E-09</v>
+        <v>6.856604824151654E-09</v>
       </c>
       <c r="J61">
-        <v>6.237737906701707E-09</v>
+        <v>6.23773790670169E-09</v>
       </c>
       <c r="K61">
-        <v>9.051424307565132E-05</v>
+        <v>9.051424307565151E-05</v>
       </c>
       <c r="L61">
-        <v>0.09217966119860989</v>
+        <v>0.09217966119860999</v>
       </c>
       <c r="M61">
-        <v>665.9755221416673</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.09217852190991144</v>
+      </c>
+      <c r="N61">
+        <v>665.9755221416674</v>
+      </c>
+      <c r="O61">
+        <v>1.139288698547218E-06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>102.8466907767876</v>
+        <v>102.8466907767875</v>
       </c>
       <c r="B62">
-        <v>647863.2465763879</v>
+        <v>647863.2465763846</v>
       </c>
       <c r="C62">
-        <v>885.0270920194341</v>
+        <v>885.0270920194304</v>
       </c>
       <c r="D62">
-        <v>24577.85332951201</v>
+        <v>24577.85332951203</v>
       </c>
       <c r="E62">
-        <v>4920.881222545189</v>
+        <v>4920.881222545191</v>
       </c>
       <c r="F62">
-        <v>4215.214400633111</v>
+        <v>4215.21440063311</v>
       </c>
       <c r="G62">
-        <v>6.531854012523433</v>
+        <v>6.531854012523405</v>
       </c>
       <c r="H62">
-        <v>29.13468582060943</v>
+        <v>29.13468582060939</v>
       </c>
       <c r="I62">
-        <v>7.176953537031373E-09</v>
+        <v>7.176953537031355E-09</v>
       </c>
       <c r="J62">
-        <v>6.451426055812533E-09</v>
+        <v>6.451426055812521E-09</v>
       </c>
       <c r="K62">
-        <v>8.81779348446932E-05</v>
+        <v>8.817793484469334E-05</v>
       </c>
       <c r="L62">
-        <v>0.09074978727405084</v>
+        <v>0.09074978727405092</v>
       </c>
       <c r="M62">
-        <v>656.8087132161337</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.09074861695223604</v>
+      </c>
+      <c r="N62">
+        <v>656.8087132161345</v>
+      </c>
+      <c r="O62">
+        <v>1.170321814881283E-06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>103.8344320368275</v>
+        <v>103.8344320368273</v>
       </c>
       <c r="B63">
-        <v>692307.7723622572</v>
+        <v>692307.7723622411</v>
       </c>
       <c r="C63">
-        <v>944.2031813124855</v>
+        <v>944.2031813124605</v>
       </c>
       <c r="D63">
-        <v>24407.47556883982</v>
+        <v>24407.47556883983</v>
       </c>
       <c r="E63">
-        <v>4870.828888394482</v>
+        <v>4870.828888394489</v>
       </c>
       <c r="F63">
-        <v>4165.974404026766</v>
+        <v>4165.974404026769</v>
       </c>
       <c r="G63">
-        <v>6.475296100352219</v>
+        <v>6.475296100352194</v>
       </c>
       <c r="H63">
-        <v>29.69387798397566</v>
+        <v>29.69387798397562</v>
       </c>
       <c r="I63">
-        <v>7.52128952340599E-09</v>
+        <v>7.521289523405982E-09</v>
       </c>
       <c r="J63">
-        <v>6.670381600358704E-09</v>
+        <v>6.670381600358687E-09</v>
       </c>
       <c r="K63">
-        <v>8.59027956221647E-05</v>
+        <v>8.590279562216488E-05</v>
       </c>
       <c r="L63">
-        <v>0.08933763867937057</v>
+        <v>0.08933763867937065</v>
       </c>
       <c r="M63">
-        <v>647.5870850467197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.08933643702606585</v>
+      </c>
+      <c r="N63">
+        <v>647.5870850467199</v>
+      </c>
+      <c r="O63">
+        <v>1.201653304807314E-06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>104.8221732968673</v>
+        <v>104.8221732968672</v>
       </c>
       <c r="B64">
-        <v>738902.1436130329</v>
+        <v>738902.1436130258</v>
       </c>
       <c r="C64">
-        <v>1006.497546367384</v>
+        <v>1006.497546367374</v>
       </c>
       <c r="D64">
-        <v>24234.50513447155</v>
+        <v>24234.50513447156</v>
       </c>
       <c r="E64">
-        <v>4819.375986907756</v>
+        <v>4819.37598690776</v>
       </c>
       <c r="F64">
         <v>4115.733573843881</v>
       </c>
       <c r="G64">
-        <v>6.418656273121137</v>
+        <v>6.418656273121148</v>
       </c>
       <c r="H64">
-        <v>30.28806940360296</v>
+        <v>30.28806940360294</v>
       </c>
       <c r="I64">
-        <v>7.891980915105545E-09</v>
+        <v>7.89198091510553E-09</v>
       </c>
       <c r="J64">
-        <v>6.894887180417294E-09</v>
+        <v>6.894887180417276E-09</v>
       </c>
       <c r="K64">
-        <v>8.368584679069606E-05</v>
+        <v>8.368584679069622E-05</v>
       </c>
       <c r="L64">
-        <v>0.08794007253162518</v>
+        <v>0.08794007253162525</v>
       </c>
       <c r="M64">
-        <v>638.3082108662537</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.08793883923659927</v>
+      </c>
+      <c r="N64">
+        <v>638.3082108662539</v>
+      </c>
+      <c r="O64">
+        <v>1.233295025979411E-06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>105.8099145569071</v>
+        <v>105.809914556907</v>
       </c>
       <c r="B65">
-        <v>787704.7742900086</v>
+        <v>787704.7742900008</v>
       </c>
       <c r="C65">
-        <v>1072.062540351565</v>
+        <v>1072.062540351554</v>
       </c>
       <c r="D65">
-        <v>24058.80145909228</v>
+        <v>24058.8014590923</v>
       </c>
       <c r="E65">
-        <v>4766.462082580451</v>
+        <v>4766.462082580453</v>
       </c>
       <c r="F65">
-        <v>4064.446533704721</v>
+        <v>4064.446533704723</v>
       </c>
       <c r="G65">
-        <v>6.361945842810204</v>
+        <v>6.361945842810218</v>
       </c>
       <c r="H65">
-        <v>30.91908987896525</v>
+        <v>30.91908987896515</v>
       </c>
       <c r="I65">
-        <v>8.291689042129987E-09</v>
+        <v>8.291689042129932E-09</v>
       </c>
       <c r="J65">
-        <v>7.125255747844258E-09</v>
+        <v>7.125255747844232E-09</v>
       </c>
       <c r="K65">
-        <v>8.152432877798045E-05</v>
+        <v>8.152432877798074E-05</v>
       </c>
       <c r="L65">
-        <v>0.08655402979049603</v>
+        <v>0.0865540297904962</v>
       </c>
       <c r="M65">
-        <v>628.9698460254699</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.08655276452947934</v>
+      </c>
+      <c r="N65">
+        <v>628.9698460254709</v>
+      </c>
+      <c r="O65">
+        <v>1.265261016856298E-06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>106.797655816947</v>
+        <v>106.7976558169468</v>
       </c>
       <c r="B66">
-        <v>838774.5206411615</v>
+        <v>838774.5206411583</v>
       </c>
       <c r="C66">
-        <v>1141.062409384689</v>
+        <v>1141.062409384685</v>
       </c>
       <c r="D66">
-        <v>23880.21890154732</v>
+        <v>23880.21890154735</v>
       </c>
       <c r="E66">
-        <v>4712.022800881305</v>
+        <v>4712.022800881306</v>
       </c>
       <c r="F66">
         <v>4012.064967661378</v>
       </c>
       <c r="G66">
-        <v>6.305191187082268</v>
+        <v>6.305191187082293</v>
       </c>
       <c r="H66">
-        <v>31.5890236938747</v>
+        <v>31.58902369387458</v>
       </c>
       <c r="I66">
-        <v>8.723412741690704E-09</v>
+        <v>8.723412741690648E-09</v>
       </c>
       <c r="J66">
-        <v>7.361832045104891E-09</v>
+        <v>7.361832045104855E-09</v>
       </c>
       <c r="K66">
-        <v>7.941566565848241E-05</v>
+        <v>7.941566565848268E-05</v>
       </c>
       <c r="L66">
-        <v>0.08517661251920279</v>
+        <v>0.08517661251920296</v>
       </c>
       <c r="M66">
-        <v>619.5699184746253</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.08517531495182351</v>
+      </c>
+      <c r="N66">
+        <v>619.5699184746261</v>
+      </c>
+      <c r="O66">
+        <v>1.297567379443361E-06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>107.7853970769868</v>
+        <v>107.7853970769867</v>
       </c>
       <c r="B67">
-        <v>892170.7524281726</v>
+        <v>892170.7524281676</v>
       </c>
       <c r="C67">
-        <v>1213.674836730885</v>
+        <v>1213.674836730879</v>
       </c>
       <c r="D67">
-        <v>23698.60624998869</v>
+        <v>23698.60624998872</v>
       </c>
       <c r="E67">
-        <v>4655.989323082839</v>
+        <v>4655.989323082843</v>
       </c>
       <c r="F67">
-        <v>3958.537207379826</v>
+        <v>3958.53720737983</v>
       </c>
       <c r="G67">
-        <v>6.248432835712944</v>
+        <v>6.248432835712955</v>
       </c>
       <c r="H67">
-        <v>32.30023826290439</v>
+        <v>32.30023826290427</v>
       </c>
       <c r="I67">
-        <v>9.190540763088266E-09</v>
+        <v>9.190540763088197E-09</v>
       </c>
       <c r="J67">
-        <v>7.604994241908544E-09</v>
+        <v>7.604994241908511E-09</v>
       </c>
       <c r="K67">
-        <v>7.735743427845612E-05</v>
+        <v>7.735743427845637E-05</v>
       </c>
       <c r="L67">
-        <v>0.08380513758930232</v>
+        <v>0.08380513758930253</v>
       </c>
       <c r="M67">
-        <v>610.1065171030061</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.08380380735715043</v>
+      </c>
+      <c r="N67">
+        <v>610.1065171030074</v>
+      </c>
+      <c r="O67">
+        <v>1.330232152090006E-06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>108.7731383370266</v>
+        <v>108.7731383370265</v>
       </c>
       <c r="B68">
-        <v>947953.4378537</v>
+        <v>947953.4378536906</v>
       </c>
       <c r="C68">
-        <v>1290.092711438303</v>
+        <v>1290.092711438289</v>
       </c>
       <c r="D68">
-        <v>23513.80619144935</v>
+        <v>23513.80619144937</v>
       </c>
       <c r="E68">
-        <v>4598.287837509708</v>
+        <v>4598.287837509728</v>
       </c>
       <c r="F68">
-        <v>3903.807779822509</v>
+        <v>3903.807779822526</v>
       </c>
       <c r="G68">
-        <v>6.191724818465366</v>
+        <v>6.191724818465367</v>
       </c>
       <c r="H68">
-        <v>33.05541908306182</v>
+        <v>33.05541908306179</v>
       </c>
       <c r="I68">
-        <v>9.696914044652149E-09</v>
+        <v>9.696914044652108E-09</v>
       </c>
       <c r="J68">
-        <v>7.855155760953867E-09</v>
+        <v>7.855155760953837E-09</v>
       </c>
       <c r="K68">
-        <v>7.534733769360867E-05</v>
+        <v>7.534733769360891E-05</v>
       </c>
       <c r="L68">
-        <v>0.0824371735568576</v>
+        <v>0.08243717355685774</v>
       </c>
       <c r="M68">
-        <v>600.5778778299292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.08243581028168495</v>
+      </c>
+      <c r="N68">
+        <v>600.5778778299301</v>
+      </c>
+      <c r="O68">
+        <v>1.363275172785282E-06</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>109.7608795970665</v>
+        <v>109.7608795970663</v>
       </c>
       <c r="B69">
         <v>1006183.243232875</v>
       </c>
       <c r="C69">
-        <v>1370.526154189782</v>
+        <v>1370.526154189785</v>
       </c>
       <c r="D69">
-        <v>23325.65473999598</v>
+        <v>23325.65473999601</v>
       </c>
       <c r="E69">
-        <v>4538.838943124394</v>
+        <v>4538.83894312439</v>
       </c>
       <c r="F69">
-        <v>3847.816910578169</v>
+        <v>3847.81691057817</v>
       </c>
       <c r="G69">
-        <v>6.135134246653116</v>
+        <v>6.135134246653145</v>
       </c>
       <c r="H69">
-        <v>33.85761234869556</v>
+        <v>33.8576123486954</v>
       </c>
       <c r="I69">
-        <v>1.024690010095162E-08</v>
+        <v>1.024690010095151E-08</v>
       </c>
       <c r="J69">
-        <v>8.112767328818711E-09</v>
+        <v>8.112767328818671E-09</v>
       </c>
       <c r="K69">
-        <v>7.338318270986231E-05</v>
+        <v>7.338318270986266E-05</v>
       </c>
       <c r="L69">
-        <v>0.08107056605009928</v>
+        <v>0.08107056605009956</v>
       </c>
       <c r="M69">
-        <v>590.9823672771932</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.08106916933216633</v>
+      </c>
+      <c r="N69">
+        <v>590.982367277195</v>
+      </c>
+      <c r="O69">
+        <v>1.396717933228761E-06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>110.7486208571063</v>
+        <v>110.7486208571062</v>
       </c>
       <c r="B70">
-        <v>1066921.648388231</v>
+        <v>1066921.648388222</v>
       </c>
       <c r="C70">
-        <v>1455.204837302687</v>
+        <v>1455.204837302672</v>
       </c>
       <c r="D70">
-        <v>23133.98061354739</v>
+        <v>23133.98061354742</v>
       </c>
       <c r="E70">
-        <v>4477.557001427511</v>
+        <v>4477.557001427514</v>
       </c>
       <c r="F70">
-        <v>3790.499977680209</v>
+        <v>3790.499977680212</v>
       </c>
       <c r="G70">
-        <v>6.078741105048757</v>
+        <v>6.07874110504877</v>
       </c>
       <c r="H70">
-        <v>34.7102769728147</v>
+        <v>34.71027697281459</v>
       </c>
       <c r="I70">
-        <v>1.084548236017926E-08</v>
+        <v>1.084548236017917E-08</v>
       </c>
       <c r="J70">
-        <v>8.378319294317964E-09</v>
+        <v>8.378319294317931E-09</v>
       </c>
       <c r="K70">
-        <v>7.146286131392468E-05</v>
+        <v>7.146286131392497E-05</v>
       </c>
       <c r="L70">
-        <v>0.07970345562062865</v>
+        <v>0.07970345562062886</v>
       </c>
       <c r="M70">
-        <v>581.3184637949263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.07970202503720492</v>
+      </c>
+      <c r="N70">
+        <v>581.3184637949279</v>
+      </c>
+      <c r="O70">
+        <v>1.430583423940563E-06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>111.7363621171461</v>
+        <v>111.736362117146</v>
       </c>
       <c r="B71">
-        <v>1130231.078604327</v>
+        <v>1130231.078604302</v>
       </c>
       <c r="C71">
-        <v>1544.380640105637</v>
+        <v>1544.380640105594</v>
       </c>
       <c r="D71">
-        <v>22938.60454673879</v>
+        <v>22938.60454673882</v>
       </c>
       <c r="E71">
-        <v>4414.349432936035</v>
+        <v>4414.349432936046</v>
       </c>
       <c r="F71">
-        <v>3731.786910543942</v>
+        <v>3731.786910543948</v>
       </c>
       <c r="G71">
-        <v>6.022638234799068</v>
+        <v>6.022638234799074</v>
       </c>
       <c r="H71">
-        <v>35.61734825709164</v>
+        <v>35.61734825709129</v>
       </c>
       <c r="I71">
-        <v>1.149836808118241E-08</v>
+        <v>1.149836808118228E-08</v>
       </c>
       <c r="J71">
-        <v>8.652344264961151E-09</v>
+        <v>8.652344264961115E-09</v>
       </c>
       <c r="K71">
-        <v>6.958433577217276E-05</v>
+        <v>6.958433577217302E-05</v>
       </c>
       <c r="L71">
-        <v>0.07833429075856277</v>
+        <v>0.078334290758563</v>
       </c>
       <c r="M71">
-        <v>571.584735560539</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.07833282586259241</v>
+      </c>
+      <c r="N71">
+        <v>571.5847355605403</v>
+      </c>
+      <c r="O71">
+        <v>1.464895970598758E-06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>112.724103377186</v>
+        <v>112.7241033771858</v>
       </c>
       <c r="B72">
-        <v>1196175.053723807</v>
+        <v>1196175.053723797</v>
       </c>
       <c r="C72">
-        <v>1638.33068503467</v>
+        <v>1638.330685034654</v>
       </c>
       <c r="D72">
-        <v>22739.33852367222</v>
+        <v>22739.33852367226</v>
       </c>
       <c r="E72">
-        <v>4349.115955162994</v>
+        <v>4349.11595516301</v>
       </c>
       <c r="F72">
-        <v>3671.601528635711</v>
+        <v>3671.601528635726</v>
       </c>
       <c r="G72">
-        <v>5.966931491634266</v>
+        <v>5.966931491634275</v>
       </c>
       <c r="H72">
-        <v>36.58331610410145</v>
+        <v>36.58331610410136</v>
       </c>
       <c r="I72">
-        <v>1.221211952389507E-08</v>
+        <v>1.221211952389496E-08</v>
       </c>
       <c r="J72">
-        <v>8.935420123079335E-09</v>
+        <v>8.935420123079297E-09</v>
       </c>
       <c r="K72">
-        <v>6.7745627163678E-05</v>
+        <v>6.774562716367831E-05</v>
       </c>
       <c r="L72">
-        <v>0.07696183771218522</v>
+        <v>0.07696183771218547</v>
       </c>
       <c r="M72">
-        <v>561.7798154255061</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.07696033803112352</v>
+      </c>
+      <c r="N72">
+        <v>561.7798154255075</v>
+      </c>
+      <c r="O72">
+        <v>1.499681061950091E-06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>113.7118446372258</v>
+        <v>113.7118446372257</v>
       </c>
       <c r="B73">
-        <v>1264818.354546845</v>
+        <v>1264818.354546846</v>
       </c>
       <c r="C73">
-        <v>1737.360803214546</v>
+        <v>1737.360803214554</v>
       </c>
       <c r="D73">
-        <v>22535.98490976196</v>
+        <v>22535.98490976198</v>
       </c>
       <c r="E73">
-        <v>4281.747760281375</v>
+        <v>4281.747760281374</v>
       </c>
       <c r="F73">
-        <v>3609.860814822572</v>
+        <v>3609.860814822574</v>
       </c>
       <c r="G73">
-        <v>5.911740067031779</v>
+        <v>5.911740067031787</v>
       </c>
       <c r="H73">
-        <v>37.6133215216832</v>
+        <v>37.61332152168296</v>
       </c>
       <c r="I73">
-        <v>1.29943144395279E-08</v>
+        <v>1.299431443952776E-08</v>
       </c>
       <c r="J73">
-        <v>9.228173497575852E-09</v>
+        <v>9.228173497575814E-09</v>
       </c>
       <c r="K73">
-        <v>6.594480709545955E-05</v>
+        <v>6.594480709545976E-05</v>
       </c>
       <c r="L73">
-        <v>0.07558518789369111</v>
+        <v>0.0755851878936913</v>
       </c>
       <c r="M73">
-        <v>551.9023721474374</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.07558365292852152</v>
+      </c>
+      <c r="N73">
+        <v>551.9023721474388</v>
+      </c>
+      <c r="O73">
+        <v>1.534965169769719E-06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>114.6995858972657</v>
+        <v>114.6995858972655</v>
       </c>
       <c r="B74">
-        <v>1336227.206039033</v>
+        <v>1336227.20603902</v>
       </c>
       <c r="C74">
-        <v>1841.809480176792</v>
+        <v>1841.80948017677</v>
       </c>
       <c r="D74">
-        <v>22328.33545582271</v>
+        <v>22328.33545582274</v>
       </c>
       <c r="E74">
-        <v>4212.126632832694</v>
+        <v>4212.126632832698</v>
       </c>
       <c r="F74">
-        <v>3546.474119279116</v>
+        <v>3546.47411927912</v>
       </c>
       <c r="G74">
-        <v>5.857196963192703</v>
+        <v>5.857196963192673</v>
       </c>
       <c r="H74">
-        <v>38.71327630418241</v>
+        <v>38.71327630418222</v>
       </c>
       <c r="I74">
-        <v>1.385374382021422E-08</v>
+        <v>1.38537438202141E-08</v>
       </c>
       <c r="J74">
-        <v>9.531283786190965E-09</v>
+        <v>9.53128378619092E-09</v>
       </c>
       <c r="K74">
-        <v>6.417999232422339E-05</v>
+        <v>6.417999232422363E-05</v>
       </c>
       <c r="L74">
-        <v>0.07420376298143772</v>
+        <v>0.07420376298143791</v>
       </c>
       <c r="M74">
-        <v>541.9510776164792</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.07420219220587619</v>
+      </c>
+      <c r="N74">
+        <v>541.9510776164806</v>
+      </c>
+      <c r="O74">
+        <v>1.570775561719227E-06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>115.6873271573055</v>
+        <v>115.6873271573054</v>
       </c>
       <c r="B75">
-        <v>1410469.475857444</v>
+        <v>1410469.475857436</v>
       </c>
       <c r="C75">
-        <v>1952.052331364183</v>
+        <v>1952.05233136417</v>
       </c>
       <c r="D75">
-        <v>22116.17013960146</v>
+        <v>22116.17013960148</v>
       </c>
       <c r="E75">
-        <v>4140.124011393276</v>
+        <v>4140.124011393292</v>
       </c>
       <c r="F75">
-        <v>3481.342291703861</v>
+        <v>3481.342291703875</v>
       </c>
       <c r="G75">
-        <v>5.803449615894055</v>
+        <v>5.803449615894057</v>
       </c>
       <c r="H75">
-        <v>39.89001229256872</v>
+        <v>39.89001229256868</v>
       </c>
       <c r="I75">
-        <v>1.480065739124823E-08</v>
+        <v>1.480065739124818E-08</v>
       </c>
       <c r="J75">
-        <v>9.845487848154372E-09</v>
+        <v>9.845487848154334E-09</v>
       </c>
       <c r="K75">
-        <v>6.244934197734841E-05</v>
+        <v>6.244934197734852E-05</v>
       </c>
       <c r="L75">
-        <v>0.0728173173249817</v>
+        <v>0.07281731732498181</v>
       </c>
       <c r="M75">
-        <v>531.9245696649183</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.0728157101848734</v>
+      </c>
+      <c r="N75">
+        <v>531.9245696649189</v>
+      </c>
+      <c r="O75">
+        <v>1.607140108410917E-06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>116.6750684173453</v>
+        <v>116.6750684173452</v>
       </c>
       <c r="B76">
-        <v>1487614.885226347</v>
+        <v>1487614.885226331</v>
       </c>
       <c r="C76">
-        <v>2068.507151082842</v>
+        <v>2068.507151082815</v>
       </c>
       <c r="D76">
-        <v>21899.25579949528</v>
+        <v>21899.25579949531</v>
       </c>
       <c r="E76">
-        <v>4065.600003666001</v>
+        <v>4065.600003666013</v>
       </c>
       <c r="F76">
-        <v>3414.356742933062</v>
+        <v>3414.356742933073</v>
       </c>
       <c r="G76">
-        <v>5.75066066265904</v>
+        <v>5.750660662659045</v>
       </c>
       <c r="H76">
-        <v>41.15146866326902</v>
+        <v>41.15146866326877</v>
       </c>
       <c r="I76">
-        <v>1.584707081650661E-08</v>
+        <v>1.584707081650647E-08</v>
       </c>
       <c r="J76">
-        <v>1.017158552019186E-08</v>
+        <v>1.017158552019182E-08</v>
       </c>
       <c r="K76">
-        <v>6.075105702459442E-05</v>
+        <v>6.075105702459457E-05</v>
       </c>
       <c r="L76">
-        <v>0.07142593690138203</v>
+        <v>0.07142593690138216</v>
       </c>
       <c r="M76">
-        <v>521.8214100349994</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.07142429281429548</v>
+      </c>
+      <c r="N76">
+        <v>521.8214100350004</v>
+      </c>
+      <c r="O76">
+        <v>1.644087086674926E-06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>117.6628096773852</v>
+        <v>117.6628096773851</v>
       </c>
       <c r="B77">
-        <v>1567735.227035926</v>
+        <v>1567735.227035897</v>
       </c>
       <c r="C77">
-        <v>2191.639564426002</v>
+        <v>2191.639564425946</v>
       </c>
       <c r="D77">
-        <v>21677.34450136161</v>
+        <v>21677.34450136162</v>
       </c>
       <c r="E77">
-        <v>3988.402372863795</v>
+        <v>3988.402372863823</v>
       </c>
       <c r="F77">
-        <v>3345.398442555602</v>
+        <v>3345.39844255562</v>
       </c>
       <c r="G77">
-        <v>5.699008857558061</v>
+        <v>5.699008857558038</v>
       </c>
       <c r="H77">
-        <v>42.50692848930505</v>
+        <v>42.50692848930509</v>
       </c>
       <c r="I77">
-        <v>1.700715342048341E-08</v>
+        <v>1.700715342048338E-08</v>
       </c>
       <c r="J77">
-        <v>1.051044615291067E-08</v>
+        <v>1.051044615291064E-08</v>
       </c>
       <c r="K77">
-        <v>5.908338159820322E-05</v>
+        <v>5.908338159820334E-05</v>
       </c>
       <c r="L77">
-        <v>0.07003003384201921</v>
+        <v>0.07003003384201931</v>
       </c>
       <c r="M77">
-        <v>511.6400370660402</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.07002835219703726</v>
+      </c>
+      <c r="N77">
+        <v>511.6400370660409</v>
+      </c>
+      <c r="O77">
+        <v>1.681644982038097E-06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>118.650550937425</v>
+        <v>118.6505509374249</v>
       </c>
       <c r="B78">
-        <v>1650904.582934664</v>
+        <v>1650904.582934656</v>
       </c>
       <c r="C78">
-        <v>2321.969284785872</v>
+        <v>2321.969284785861</v>
       </c>
       <c r="D78">
-        <v>21450.17156088628</v>
+        <v>21450.17156088633</v>
       </c>
       <c r="E78">
-        <v>3908.365525551233</v>
+        <v>3908.365525551238</v>
       </c>
       <c r="F78">
-        <v>3274.336867792563</v>
+        <v>3274.336867792568</v>
       </c>
       <c r="G78">
-        <v>5.648690138702443</v>
+        <v>5.648690138702444</v>
       </c>
       <c r="H78">
-        <v>43.96731967405118</v>
+        <v>43.96731967405079</v>
       </c>
       <c r="I78">
-        <v>1.829772200480533E-08</v>
+        <v>1.829772200480503E-08</v>
       </c>
       <c r="J78">
-        <v>1.086301642363817E-08</v>
+        <v>1.08630164236381E-08</v>
       </c>
       <c r="K78">
-        <v>5.744460568928849E-05</v>
+        <v>5.744460568928883E-05</v>
       </c>
       <c r="L78">
-        <v>0.06863033543384819</v>
+        <v>0.06863033543384847</v>
       </c>
       <c r="M78">
-        <v>501.3787126355705</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.06862861559155384</v>
+      </c>
+      <c r="N78">
+        <v>501.3787126355729</v>
+      </c>
+      <c r="O78">
+        <v>1.719842294639855E-06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>119.6382921974648</v>
+        <v>119.6382921974647</v>
       </c>
       <c r="B79">
-        <v>1737199.526781449</v>
+        <v>1737199.526781421</v>
       </c>
       <c r="C79">
-        <v>2460.076933358619</v>
+        <v>2460.076933358566</v>
       </c>
       <c r="D79">
-        <v>21217.45311916046</v>
+        <v>21217.45311916048</v>
       </c>
       <c r="E79">
-        <v>3825.309548546731</v>
+        <v>3825.309548546755</v>
       </c>
       <c r="F79">
-        <v>3201.028931935913</v>
+        <v>3201.02893193593</v>
       </c>
       <c r="G79">
-        <v>5.599918860741109</v>
+        <v>5.599918860741107</v>
       </c>
       <c r="H79">
-        <v>45.54560075269928</v>
+        <v>45.54560075269909</v>
       </c>
       <c r="I79">
-        <v>1.973887595221285E-08</v>
+        <v>1.973887595221272E-08</v>
       </c>
       <c r="J79">
-        <v>1.123032976158773E-08</v>
+        <v>1.123032976158769E-08</v>
       </c>
       <c r="K79">
-        <v>5.583306865827515E-05</v>
+        <v>5.583306865827526E-05</v>
       </c>
       <c r="L79">
-        <v>0.06722786648417231</v>
+        <v>0.06722786648417245</v>
       </c>
       <c r="M79">
-        <v>491.0354628270629</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.06722610777681787</v>
+      </c>
+      <c r="N79">
+        <v>491.0354628270636</v>
+      </c>
+      <c r="O79">
+        <v>1.758707354580405E-06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>120.6260334575047</v>
+        <v>120.6260334575045</v>
       </c>
       <c r="B80">
-        <v>1826699.295668947</v>
+        <v>1826699.295668935</v>
       </c>
       <c r="C80">
-        <v>2606.61130280356</v>
+        <v>2606.611302803543</v>
       </c>
       <c r="D80">
-        <v>20978.88313532736</v>
+        <v>20978.88313532741</v>
       </c>
       <c r="E80">
-        <v>3739.039366257149</v>
+        <v>3739.039366257154</v>
       </c>
       <c r="F80">
-        <v>3125.317939444038</v>
+        <v>3125.317939444044</v>
       </c>
       <c r="G80">
-        <v>5.552929213309847</v>
+        <v>5.552929213309869</v>
       </c>
       <c r="H80">
-        <v>47.25725971359183</v>
+        <v>47.2572597135914</v>
       </c>
       <c r="I80">
-        <v>2.135482264500828E-08</v>
+        <v>2.135482264500789E-08</v>
       </c>
       <c r="J80">
-        <v>1.161351783015258E-08</v>
+        <v>1.16135178301525E-08</v>
       </c>
       <c r="K80">
-        <v>5.424716288091874E-05</v>
+        <v>5.424716288091906E-05</v>
       </c>
       <c r="L80">
-        <v>0.06582392400887528</v>
+        <v>0.06582392400887559</v>
       </c>
       <c r="M80">
-        <v>480.6080116582199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.06582212574072058</v>
+      </c>
+      <c r="N80">
+        <v>480.6080116582223</v>
+      </c>
+      <c r="O80">
+        <v>1.798268155004903E-06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>121.6137747175445</v>
+        <v>121.6137747175444</v>
       </c>
       <c r="B81">
-        <v>1919485.901280738</v>
+        <v>1919485.901280746</v>
       </c>
       <c r="C81">
-        <v>2762.296834184248</v>
+        <v>2762.296834184278</v>
       </c>
       <c r="D81">
-        <v>20734.12961351285</v>
+        <v>20734.12961351289</v>
       </c>
       <c r="E81">
-        <v>3649.34412055352</v>
+        <v>3649.344120553509</v>
       </c>
       <c r="F81">
-        <v>3047.032640646022</v>
+        <v>3047.032640646017</v>
       </c>
       <c r="G81">
-        <v>5.507976858796488</v>
+        <v>5.50797685879649</v>
       </c>
       <c r="H81">
-        <v>49.12096503540487</v>
+        <v>49.12096503540453</v>
       </c>
       <c r="I81">
-        <v>2.317496242831074E-08</v>
+        <v>2.31749624283104E-08</v>
       </c>
       <c r="J81">
-        <v>1.201382466158818E-08</v>
+        <v>1.201382466158811E-08</v>
       </c>
       <c r="K81">
-        <v>5.268533670139672E-05</v>
+        <v>5.268533670139698E-05</v>
       </c>
       <c r="L81">
-        <v>0.06442004334106463</v>
+        <v>0.06442004334106487</v>
       </c>
       <c r="M81">
-        <v>470.0937069218841</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.0644182047888506</v>
+      </c>
+      <c r="N81">
+        <v>470.0937069218861</v>
+      </c>
+      <c r="O81">
+        <v>1.83855221426094E-06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>122.6015159775844</v>
+        <v>122.6015159775842</v>
       </c>
       <c r="B82">
-        <v>2015644.143010051</v>
+        <v>2015644.143010028</v>
       </c>
       <c r="C82">
-        <v>2927.940913224812</v>
+        <v>2927.940913224761</v>
       </c>
       <c r="D82">
-        <v>20482.82981585121</v>
+        <v>20482.82981585123</v>
       </c>
       <c r="E82">
-        <v>3555.996911936852</v>
+        <v>3555.996911936876</v>
       </c>
       <c r="F82">
-        <v>2965.986492325925</v>
+        <v>2965.986492325946</v>
       </c>
       <c r="G82">
-        <v>5.465340841053233</v>
+        <v>5.465340841053243</v>
       </c>
       <c r="H82">
-        <v>51.15942434727802</v>
+        <v>51.15942434727761</v>
       </c>
       <c r="I82">
-        <v>2.52353323421781E-08</v>
+        <v>2.523533234217779E-08</v>
       </c>
       <c r="J82">
-        <v>1.243262425004547E-08</v>
+        <v>1.243262425004542E-08</v>
       </c>
       <c r="K82">
-        <v>5.1146095669177E-05</v>
+        <v>5.114609566917714E-05</v>
       </c>
       <c r="L82">
-        <v>0.06301795493257679</v>
+        <v>0.06301795493257693</v>
       </c>
       <c r="M82">
-        <v>459.4894366590685</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.06301607534609423</v>
+      </c>
+      <c r="N82">
+        <v>459.4894366590697</v>
+      </c>
+      <c r="O82">
+        <v>1.879586482712412E-06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>123.5892572376242</v>
+        <v>123.5892572376241</v>
       </c>
       <c r="B83">
-        <v>2115261.469534386</v>
+        <v>2115261.469534388</v>
       </c>
       <c r="C83">
-        <v>3104.440371388254</v>
+        <v>3104.440371388273</v>
       </c>
       <c r="D83">
-        <v>20224.58412021336</v>
+        <v>20224.58412021342</v>
       </c>
       <c r="E83">
-        <v>3458.755078263212</v>
+        <v>3458.755078263218</v>
       </c>
       <c r="F83">
-        <v>2881.977269183324</v>
+        <v>2881.977269183334</v>
       </c>
       <c r="G83">
-        <v>5.425325844091792</v>
+        <v>5.425325844091811</v>
       </c>
       <c r="H83">
-        <v>53.40053037574343</v>
+        <v>53.40053037574274</v>
       </c>
       <c r="I83">
-        <v>2.758055318857522E-08</v>
+        <v>2.758055318857452E-08</v>
       </c>
       <c r="J83">
-        <v>1.287144270855144E-08</v>
+        <v>1.287144270855134E-08</v>
       </c>
       <c r="K83">
-        <v>4.962800078092352E-05</v>
+        <v>4.962800078092389E-05</v>
       </c>
       <c r="L83">
-        <v>0.0616195312956091</v>
+        <v>0.06161953129560948</v>
       </c>
       <c r="M83">
-        <v>448.7915338342767</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.06161760989829398</v>
+      </c>
+      <c r="N83">
+        <v>448.7915338342797</v>
+      </c>
+      <c r="O83">
+        <v>1.921397315496646E-06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>124.5769984976641</v>
+        <v>124.5769984976639</v>
       </c>
       <c r="B84">
-        <v>2218427.617263062</v>
+        <v>2218427.617263014</v>
       </c>
       <c r="C84">
-        <v>3292.786306046204</v>
+        <v>3292.786306046081</v>
       </c>
       <c r="D84">
-        <v>19958.94804620159</v>
+        <v>19958.94804620161</v>
       </c>
       <c r="E84">
-        <v>3357.36121264471</v>
+        <v>3357.36121264475</v>
       </c>
       <c r="F84">
-        <v>2794.787207669255</v>
+        <v>2794.787207669283</v>
       </c>
       <c r="G84">
-        <v>5.38826492140251</v>
+        <v>5.38826492140252</v>
       </c>
       <c r="H84">
-        <v>55.87891090264197</v>
+        <v>55.87891090264168</v>
       </c>
       <c r="I84">
-        <v>3.026649442742093E-08</v>
+        <v>3.026649442742067E-08</v>
       </c>
       <c r="J84">
-        <v>1.333198652884177E-08</v>
+        <v>1.333198652884172E-08</v>
       </c>
       <c r="K84">
-        <v>4.812966210865611E-05</v>
+        <v>4.812966210865624E-05</v>
       </c>
       <c r="L84">
-        <v>0.06022672365186928</v>
+        <v>0.06022672365186941</v>
       </c>
       <c r="M84">
-        <v>437.9956651669712</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.0602247596413288</v>
+      </c>
+      <c r="N84">
+        <v>437.9956651669718</v>
+      </c>
+      <c r="O84">
+        <v>1.964010540609468E-06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>125.5647397577039</v>
+        <v>125.5647397577037</v>
       </c>
       <c r="B85">
-        <v>2325233.9329877</v>
+        <v>2325233.932987727</v>
       </c>
       <c r="C85">
-        <v>3494.066053127035</v>
+        <v>3494.066053127131</v>
       </c>
       <c r="D85">
-        <v>19685.42177414064</v>
+        <v>19685.42177414069</v>
       </c>
       <c r="E85">
-        <v>3251.545107521889</v>
+        <v>3251.545107521868</v>
       </c>
       <c r="F85">
-        <v>2704.183879338732</v>
+        <v>2704.183879338721</v>
       </c>
       <c r="G85">
-        <v>5.354522880349382</v>
+        <v>5.3545228803494</v>
       </c>
       <c r="H85">
-        <v>58.63805737871218</v>
+        <v>58.6380573787118</v>
       </c>
       <c r="I85">
-        <v>3.336398165311957E-08</v>
+        <v>3.336398165311897E-08</v>
       </c>
       <c r="J85">
-        <v>1.38161791207799E-08</v>
+        <v>1.381617912077978E-08</v>
       </c>
       <c r="K85">
-        <v>4.664972573429529E-05</v>
+        <v>4.664972573429564E-05</v>
       </c>
       <c r="L85">
-        <v>0.05884148784971845</v>
+        <v>0.05884148784971874</v>
       </c>
       <c r="M85">
-        <v>427.0966974237252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.05883948039805553</v>
+      </c>
+      <c r="N85">
+        <v>427.0966974237274</v>
+      </c>
+      <c r="O85">
+        <v>2.007451663220569E-06</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>126.5524810177437</v>
+        <v>126.5524810177436</v>
       </c>
       <c r="B86">
-        <v>2435772.266729626</v>
+        <v>2435772.26672961</v>
       </c>
       <c r="C86">
-        <v>3709.460966454867</v>
+        <v>3709.460966454837</v>
       </c>
       <c r="D86">
-        <v>19403.43618455344</v>
+        <v>19403.43618455349</v>
       </c>
       <c r="E86">
-        <v>3141.0267049565</v>
+        <v>3141.026704956521</v>
       </c>
       <c r="F86">
-        <v>2609.921947446814</v>
+        <v>2609.921947446834</v>
       </c>
       <c r="G86">
-        <v>5.324500604650308</v>
+        <v>5.324500604650318</v>
       </c>
       <c r="H86">
-        <v>61.73329962234477</v>
+        <v>61.73329962234438</v>
       </c>
       <c r="I86">
-        <v>3.696404955576502E-08</v>
+        <v>3.696404955576445E-08</v>
       </c>
       <c r="J86">
-        <v>1.432620876436714E-08</v>
+        <v>1.432620876436706E-08</v>
       </c>
       <c r="K86">
-        <v>4.518685127253528E-05</v>
+        <v>4.518685127253553E-05</v>
       </c>
       <c r="L86">
-        <v>0.05746569888047132</v>
+        <v>0.05746569888047153</v>
       </c>
       <c r="M86">
-        <v>416.0885302750281</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.05746364713420776</v>
+      </c>
+      <c r="N86">
+        <v>416.0885302750298</v>
+      </c>
+      <c r="O86">
+        <v>2.051746263768506E-06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>127.5402222777836</v>
+        <v>127.5402222777834</v>
       </c>
       <c r="B87">
-        <v>2550133.304870822</v>
+        <v>2550133.304870817</v>
       </c>
       <c r="C87">
-        <v>3940.238816590941</v>
+        <v>3940.238816590948</v>
       </c>
       <c r="D87">
-        <v>19112.33399471147</v>
+        <v>19112.33399471152</v>
       </c>
       <c r="E87">
-        <v>3025.519845545759</v>
+        <v>3025.519845545771</v>
       </c>
       <c r="F87">
-        <v>2511.745789084104</v>
+        <v>2511.745789084116</v>
       </c>
       <c r="G87">
-        <v>5.298640751026208</v>
+        <v>5.298640751026201</v>
       </c>
       <c r="H87">
-        <v>65.2360467387474</v>
+        <v>65.23604673874675</v>
       </c>
       <c r="I87">
-        <v>4.118553905793888E-08</v>
+        <v>4.118553905793802E-08</v>
       </c>
       <c r="J87">
-        <v>1.486459256834814E-08</v>
+        <v>1.486459256834804E-08</v>
       </c>
       <c r="K87">
-        <v>4.373967636121714E-05</v>
+        <v>4.373967636121742E-05</v>
       </c>
       <c r="L87">
-        <v>0.05610105274639138</v>
+        <v>0.05610105274639166</v>
       </c>
       <c r="M87">
-        <v>404.9638783543944</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.05609895582571989</v>
+      </c>
+      <c r="N87">
+        <v>404.9638783543967</v>
+      </c>
+      <c r="O87">
+        <v>2.096920671771412E-06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>128.5279635378234</v>
+        <v>128.5279635378233</v>
       </c>
       <c r="B88">
-        <v>2668404.213594679</v>
+        <v>2668404.213594635</v>
       </c>
       <c r="C88">
-        <v>4187.740544656212</v>
+        <v>4187.740544656082</v>
       </c>
       <c r="D88">
-        <v>18811.34387452484</v>
+        <v>18811.34387452485</v>
       </c>
       <c r="E88">
-        <v>2904.736008087565</v>
+        <v>2904.736008087606</v>
       </c>
       <c r="F88">
-        <v>2409.392555687265</v>
+        <v>2409.392555687292</v>
       </c>
       <c r="G88">
-        <v>5.277435494950558</v>
+        <v>5.277435494950574</v>
       </c>
       <c r="H88">
-        <v>69.23997332035924</v>
+        <v>69.23997332035968</v>
       </c>
       <c r="I88">
-        <v>4.618634350769604E-08</v>
+        <v>4.618634350769632E-08</v>
       </c>
       <c r="J88">
-        <v>1.543426330597325E-08</v>
+        <v>1.543426330597322E-08</v>
       </c>
       <c r="K88">
-        <v>4.230676319110067E-05</v>
+        <v>4.230676319110069E-05</v>
       </c>
       <c r="L88">
-        <v>0.05474895332876883</v>
+        <v>0.05474895332876889</v>
       </c>
       <c r="M88">
-        <v>393.7139754582465</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.05474681032573542</v>
+      </c>
+      <c r="N88">
+        <v>393.713975458246</v>
+      </c>
+      <c r="O88">
+        <v>2.143003033474135E-06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>129.5157047978633</v>
+        <v>129.5157047978631</v>
       </c>
       <c r="B89">
-        <v>2790665.494288387</v>
+        <v>2790665.494288383</v>
       </c>
       <c r="C89">
-        <v>4453.363450299355</v>
+        <v>4453.363450299375</v>
       </c>
       <c r="D89">
-        <v>18499.54433515203</v>
+        <v>18499.54433515213</v>
       </c>
       <c r="E89">
-        <v>2778.386153395144</v>
+        <v>2778.386153395154</v>
       </c>
       <c r="F89">
-        <v>2302.594446920805</v>
+        <v>2302.594446920818</v>
       </c>
       <c r="G89">
-        <v>5.26143737538132</v>
+        <v>5.261437375381322</v>
       </c>
       <c r="H89">
-        <v>73.87028387852619</v>
+        <v>73.87028387852449</v>
       </c>
       <c r="I89">
-        <v>5.218050500918243E-08</v>
+        <v>5.218050500918024E-08</v>
       </c>
       <c r="J89">
-        <v>1.60386896247079E-08</v>
+        <v>1.603868962470773E-08</v>
       </c>
       <c r="K89">
-        <v>4.088652019629561E-05</v>
+        <v>4.088652019629603E-05</v>
       </c>
       <c r="L89">
-        <v>0.0534103800052811</v>
+        <v>0.05341038000528148</v>
       </c>
       <c r="M89">
-        <v>382.3281595102204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.05340818998033594</v>
+      </c>
+      <c r="N89">
+        <v>382.3281595102242</v>
+      </c>
+      <c r="O89">
+        <v>2.190024945539402E-06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>130.5034460579031</v>
+        <v>130.5034460579029</v>
       </c>
       <c r="B90">
-        <v>2916987.036361658</v>
+        <v>2916987.036361595</v>
       </c>
       <c r="C90">
-        <v>4738.547490305475</v>
+        <v>4738.547490305262</v>
       </c>
       <c r="D90">
         <v>18175.81243647078</v>
       </c>
       <c r="E90">
-        <v>2646.177072213487</v>
+        <v>2646.177072213545</v>
       </c>
       <c r="F90">
-        <v>2191.077623460696</v>
+        <v>2191.077623460734</v>
       </c>
       <c r="G90">
-        <v>5.251274882684678</v>
+        <v>5.251274882684676</v>
       </c>
       <c r="H90">
-        <v>79.29801460014203</v>
+        <v>79.29801460014339</v>
       </c>
       <c r="I90">
-        <v>5.946501087982001E-08</v>
+        <v>5.946501087982112E-08</v>
       </c>
       <c r="J90">
         <v>1.668204605095979E-08</v>
       </c>
       <c r="K90">
-        <v>3.947708900778648E-05</v>
+        <v>3.947708900778647E-05</v>
       </c>
       <c r="L90">
         <v>0.05208572862284164</v>
       </c>
       <c r="M90">
-        <v>370.7932759160441</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.05208349059893173</v>
+      </c>
+      <c r="N90">
+        <v>370.7932759160431</v>
+      </c>
+      <c r="O90">
+        <v>2.238023909910047E-06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>131.4911873179429</v>
+        <v>131.4911873179428</v>
       </c>
       <c r="B91">
-        <v>3047423.504260197</v>
+        <v>3047423.504260144</v>
       </c>
       <c r="C91">
-        <v>5044.778970847733</v>
+        <v>5044.778970847537</v>
       </c>
       <c r="D91">
-        <v>17838.74945410368</v>
+        <v>17838.7494541037</v>
       </c>
       <c r="E91">
-        <v>2507.796225341081</v>
+        <v>2507.796225341141</v>
       </c>
       <c r="F91">
-        <v>2074.553171540239</v>
+        <v>2074.553171540285</v>
       </c>
       <c r="G91">
-        <v>5.247675397203712</v>
+        <v>5.247675397203723</v>
       </c>
       <c r="H91">
-        <v>85.76290199781893</v>
+        <v>85.76290199781825</v>
       </c>
       <c r="I91">
-        <v>6.846331115838433E-08</v>
+        <v>6.846331115838366E-08</v>
       </c>
       <c r="J91">
-        <v>1.736945921771725E-08</v>
+        <v>1.736945921771721E-08</v>
       </c>
       <c r="K91">
-        <v>3.807618181412003E-05</v>
+        <v>3.807618181412011E-05</v>
       </c>
       <c r="L91">
-        <v>0.05077461316900982</v>
+        <v>0.0507746131690099</v>
       </c>
       <c r="M91">
-        <v>359.0928049911555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.05077232612201279</v>
+      </c>
+      <c r="N91">
+        <v>359.092804991156</v>
+      </c>
+      <c r="O91">
+        <v>2.287046997109147E-06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>132.4789285779828</v>
+        <v>132.4789285779826</v>
       </c>
       <c r="B92">
-        <v>3182009.414049443</v>
+        <v>3182009.414049414</v>
       </c>
       <c r="C92">
-        <v>5373.63685155261</v>
+        <v>5373.636851552515</v>
       </c>
       <c r="D92">
-        <v>17486.57059165105</v>
+        <v>17486.57059165116</v>
       </c>
       <c r="E92">
-        <v>2362.876028235351</v>
+        <v>2362.87602823539</v>
       </c>
       <c r="F92">
-        <v>1952.692852959341</v>
+        <v>1952.692852959376</v>
       </c>
       <c r="G92">
-        <v>5.251499703670722</v>
+        <v>5.25149970367069</v>
       </c>
       <c r="H92">
-        <v>93.61148871717486</v>
+        <v>93.61148871717093</v>
       </c>
       <c r="I92">
-        <v>7.979899780525252E-08</v>
+        <v>7.979899780524745E-08</v>
       </c>
       <c r="J92">
-        <v>1.810737435825575E-08</v>
+        <v>1.810737435825554E-08</v>
       </c>
       <c r="K92">
-        <v>3.668084558477045E-05</v>
+        <v>3.668084558477089E-05</v>
       </c>
       <c r="L92">
-        <v>0.04947560636106196</v>
+        <v>0.04947560636106234</v>
       </c>
       <c r="M92">
-        <v>347.2055673807558</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.04947326920473357</v>
+      </c>
+      <c r="N92">
+        <v>347.2055673807603</v>
+      </c>
+      <c r="O92">
+        <v>2.337156328764029E-06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>133.4666698380226</v>
+        <v>133.4666698380224</v>
       </c>
       <c r="B93">
-        <v>3320754.498934977</v>
+        <v>3320754.498934961</v>
       </c>
       <c r="C93">
-        <v>5726.921033438756</v>
+        <v>5726.921033438728</v>
       </c>
       <c r="D93">
-        <v>17116.93648095726</v>
+        <v>17116.93648095732</v>
       </c>
       <c r="E93">
-        <v>2210.924880041958</v>
+        <v>2210.924880041974</v>
       </c>
       <c r="F93">
-        <v>1825.079016363999</v>
+        <v>1825.079016364013</v>
       </c>
       <c r="G93">
-        <v>5.263795185120054</v>
+        <v>5.263795185120037</v>
       </c>
       <c r="H93">
-        <v>103.3638088155743</v>
+        <v>103.3638088155724</v>
       </c>
       <c r="I93">
-        <v>9.44269006112584E-08</v>
+        <v>9.442690061125554E-08</v>
       </c>
       <c r="J93">
-        <v>1.890411882094095E-08</v>
+        <v>1.890411882094081E-08</v>
       </c>
       <c r="K93">
-        <v>3.528711314885476E-05</v>
+        <v>3.528711314885498E-05</v>
       </c>
       <c r="L93">
-        <v>0.04818588059497739</v>
+        <v>0.04818588059497759</v>
       </c>
       <c r="M93">
-        <v>335.1037677551367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.04818349215757712</v>
+      </c>
+      <c r="N93">
+        <v>335.103767755139</v>
+      </c>
+      <c r="O93">
+        <v>2.388437400472367E-06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>134.4544110980625</v>
+        <v>134.4544110980623</v>
       </c>
       <c r="B94">
-        <v>3463640.145168693</v>
+        <v>3463640.145168674</v>
       </c>
       <c r="C94">
-        <v>6106.920708933256</v>
+        <v>6106.920708933229</v>
       </c>
       <c r="D94">
-        <v>16726.68571031316</v>
+        <v>16726.68571031324</v>
       </c>
       <c r="E94">
-        <v>2051.20699049993</v>
+        <v>2051.206990499947</v>
       </c>
       <c r="F94">
-        <v>1691.113315323413</v>
+        <v>1691.113315323428</v>
       </c>
       <c r="G94">
-        <v>5.28588031455683</v>
+        <v>5.285880314556859</v>
       </c>
       <c r="H94">
-        <v>115.837240922126</v>
+        <v>115.8372409221228</v>
       </c>
       <c r="I94">
-        <v>1.138808485148933E-07</v>
+        <v>1.138808485148886E-07</v>
       </c>
       <c r="J94">
-        <v>1.977080414356548E-08</v>
+        <v>1.977080414356532E-08</v>
       </c>
       <c r="K94">
-        <v>3.388946760912488E-05</v>
+        <v>3.388946760912515E-05</v>
       </c>
       <c r="L94">
-        <v>0.04690067784677204</v>
+        <v>0.04690067784677224</v>
       </c>
       <c r="M94">
-        <v>322.7499485312144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.04689823683468618</v>
+      </c>
+      <c r="N94">
+        <v>322.7499485312165</v>
+      </c>
+      <c r="O94">
+        <v>2.44101208606376E-06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>135.4421523581023</v>
+        <v>135.4421523581021</v>
       </c>
       <c r="B95">
-        <v>3610617.685626228</v>
+        <v>3610617.685626145</v>
       </c>
       <c r="C95">
-        <v>6516.913155899812</v>
+        <v>6516.913155899364</v>
       </c>
       <c r="D95">
-        <v>16311.38799162048</v>
+        <v>16311.38799162036</v>
       </c>
       <c r="E95">
-        <v>1882.541916591191</v>
+        <v>1882.541916591286</v>
       </c>
       <c r="F95">
-        <v>1549.859530266334</v>
+        <v>1549.859530266401</v>
       </c>
       <c r="G95">
-        <v>5.319484578389433</v>
+        <v>5.319484578389494</v>
       </c>
       <c r="H95">
-        <v>132.3942279064936</v>
+        <v>132.3942279065031</v>
       </c>
       <c r="I95">
-        <v>1.407784563749745E-07</v>
+        <v>1.407784563749885E-07</v>
       </c>
       <c r="J95">
-        <v>2.072284675877869E-08</v>
+        <v>2.072284675877891E-08</v>
       </c>
       <c r="K95">
-        <v>3.247997331676106E-05</v>
+        <v>3.247997331676064E-05</v>
       </c>
       <c r="L95">
-        <v>0.04561246814178015</v>
+        <v>0.04561246814177983</v>
       </c>
       <c r="M95">
-        <v>310.0920090455681</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.04560997308183389</v>
+      </c>
+      <c r="N95">
+        <v>310.0920090455626</v>
+      </c>
+      <c r="O95">
+        <v>2.495059945940688E-06</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>136.4298936181421</v>
+        <v>136.4298936181419</v>
       </c>
       <c r="B96">
-        <v>3761609.09245741</v>
+        <v>3761609.092457478</v>
       </c>
       <c r="C96">
-        <v>6962.062238434586</v>
+        <v>6962.062238435178</v>
       </c>
       <c r="D96">
-        <v>15864.54458005012</v>
+        <v>15864.54458005048</v>
       </c>
       <c r="E96">
-        <v>1702.964470288521</v>
+        <v>1702.964470288436</v>
       </c>
       <c r="F96">
-        <v>1399.771399518873</v>
+        <v>1399.771399518824</v>
       </c>
       <c r="G96">
-        <v>5.366994456211185</v>
+        <v>5.366994456211047</v>
       </c>
       <c r="H96">
-        <v>155.4872695674544</v>
+        <v>155.487269567421</v>
       </c>
       <c r="I96">
-        <v>1.799538563443099E-07</v>
+        <v>1.799538563442581E-07</v>
       </c>
       <c r="J96">
-        <v>2.178271244357745E-08</v>
+        <v>2.178271244357667E-08</v>
       </c>
       <c r="K96">
-        <v>3.104675299248742E-05</v>
+        <v>3.104675299248857E-05</v>
       </c>
       <c r="L96">
-        <v>0.04430949857738778</v>
+        <v>0.04430949857738872</v>
       </c>
       <c r="M96">
-        <v>297.0544457053816</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.04430694772169914</v>
+      </c>
+      <c r="N96">
+        <v>297.054445705395</v>
+      </c>
+      <c r="O96">
+        <v>2.550855689572174E-06</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>137.417634878182</v>
+        <v>137.4176348781818</v>
       </c>
       <c r="B97">
-        <v>3916510.14749353</v>
+        <v>3916510.147493368</v>
       </c>
       <c r="C97">
-        <v>7451.115839482619</v>
+        <v>7451.115839481421</v>
       </c>
       <c r="D97">
-        <v>15376.01743372713</v>
+        <v>15376.0174337268</v>
       </c>
       <c r="E97">
-        <v>1509.097129740623</v>
+        <v>1509.097129740846</v>
       </c>
       <c r="F97">
-        <v>1238.185308250125</v>
+        <v>1238.185308250281</v>
       </c>
       <c r="G97">
-        <v>5.431924587034469</v>
+        <v>5.431924587034656</v>
       </c>
       <c r="H97">
-        <v>190.0214068978766</v>
+        <v>190.0214068979288</v>
       </c>
       <c r="I97">
-        <v>2.413510202718575E-07</v>
+        <v>2.413510202719405E-07</v>
       </c>
       <c r="J97">
-        <v>2.298534810310062E-08</v>
+        <v>2.298534810310135E-08</v>
       </c>
       <c r="K97">
-        <v>2.957103153434601E-05</v>
+        <v>2.957103153434499E-05</v>
       </c>
       <c r="L97">
-        <v>0.04297303075329424</v>
+        <v>0.04297303075329349</v>
       </c>
       <c r="M97">
-        <v>283.5213034944198</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.04297042191144803</v>
+      </c>
+      <c r="N97">
+        <v>283.5213034944068</v>
+      </c>
+      <c r="O97">
+        <v>2.608841845452504E-06</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>138.4053761382218</v>
+        <v>138.4053761382216</v>
       </c>
       <c r="B98">
-        <v>4075195.647483523</v>
+        <v>4075195.647483563</v>
       </c>
       <c r="C98">
-        <v>8000.051541111241</v>
+        <v>8000.051541111892</v>
       </c>
       <c r="D98">
-        <v>14828.51011289333</v>
+        <v>14828.51011289372</v>
       </c>
       <c r="E98">
-        <v>1294.803241869365</v>
+        <v>1294.803241869281</v>
       </c>
       <c r="F98">
-        <v>1060.228719894358</v>
+        <v>1060.228719894306</v>
       </c>
       <c r="G98">
-        <v>5.519940788229065</v>
+        <v>5.519940788228936</v>
       </c>
       <c r="H98">
-        <v>247.441662227575</v>
+        <v>247.4416622274979</v>
       </c>
       <c r="I98">
-        <v>3.489135466370975E-07</v>
+        <v>3.489135466369609E-07</v>
       </c>
       <c r="J98">
-        <v>2.439043010355108E-08</v>
+        <v>2.439043010355012E-08</v>
       </c>
       <c r="K98">
-        <v>2.802054584133331E-05</v>
+        <v>2.802054584133442E-05</v>
       </c>
       <c r="L98">
-        <v>0.0415713432603077</v>
+        <v>0.04157134326030859</v>
       </c>
       <c r="M98">
-        <v>269.2980454919916</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.04156867346987602</v>
+      </c>
+      <c r="N98">
+        <v>269.2980454920039</v>
+      </c>
+      <c r="O98">
+        <v>2.669790432571347E-06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>139.3931173982616</v>
+        <v>139.3931173982614</v>
       </c>
       <c r="B99">
-        <v>4237525.823100387</v>
+        <v>4237525.823100331</v>
       </c>
       <c r="C99">
-        <v>8641.808507308731</v>
+        <v>8641.808507308087</v>
       </c>
       <c r="D99">
-        <v>14187.93738759233</v>
+        <v>14187.93738759212</v>
       </c>
       <c r="E99">
-        <v>1047.568393519991</v>
+        <v>1047.568393520093</v>
       </c>
       <c r="F99">
-        <v>855.8876817544588</v>
+        <v>855.8876817545312</v>
       </c>
       <c r="G99">
-        <v>5.641558987941565</v>
+        <v>5.641558987941682</v>
       </c>
       <c r="H99">
-        <v>362.0817996809358</v>
+        <v>362.0817996810462</v>
       </c>
       <c r="I99">
-        <v>5.771430408703258E-07</v>
+        <v>5.771430408705275E-07</v>
       </c>
       <c r="J99">
-        <v>2.611609667295912E-08</v>
+        <v>2.611609667295965E-08</v>
       </c>
       <c r="K99">
-        <v>2.633152062775757E-05</v>
+        <v>2.633152062775696E-05</v>
       </c>
       <c r="L99">
-        <v>0.04004384918095652</v>
+        <v>0.04004384918095611</v>
       </c>
       <c r="M99">
-        <v>254.0068250632319</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.04004111393654394</v>
+      </c>
+      <c r="N99">
+        <v>254.0068250632248</v>
+      </c>
+      <c r="O99">
+        <v>2.735244412171109E-06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>140.3808586583015</v>
+        <v>140.3808586583013</v>
       </c>
       <c r="B100">
-        <v>4403353.038884274</v>
+        <v>4403353.038884201</v>
       </c>
       <c r="C100">
-        <v>9464.203239535367</v>
+        <v>9464.203239534145</v>
       </c>
       <c r="D100">
-        <v>13365.57194651115</v>
+        <v>13365.57194651088</v>
       </c>
       <c r="E100">
-        <v>734.3309958730689</v>
+        <v>734.3309958732825</v>
       </c>
       <c r="F100">
-        <v>598.5218879445093</v>
+        <v>598.5218879446711</v>
       </c>
       <c r="G100">
-        <v>5.822300254601541</v>
+        <v>5.822300254601712</v>
       </c>
       <c r="H100">
-        <v>705.5540473259236</v>
+        <v>705.5540473263457</v>
       </c>
       <c r="I100">
-        <v>1.316293759622521E-06</v>
+        <v>1.316293759623381E-06</v>
       </c>
       <c r="J100">
-        <v>2.847249009474004E-08</v>
+        <v>2.847249009474078E-08</v>
       </c>
       <c r="K100">
-        <v>2.433770130663677E-05</v>
+        <v>2.433770130663611E-05</v>
       </c>
       <c r="L100">
-        <v>0.03824051842800934</v>
+        <v>0.03824051842800888</v>
       </c>
       <c r="M100">
-        <v>236.6720561146893</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.03823770917301099</v>
+      </c>
+      <c r="N100">
+        <v>236.6720561146816</v>
+      </c>
+      <c r="O100">
+        <v>2.809254997889928E-06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>141.3685999183413</v>
+        <v>141.3685999183411</v>
       </c>
       <c r="B101">
-        <v>4572527.038930407</v>
+        <v>4572527.041549331</v>
       </c>
       <c r="C101">
-        <v>11454.03423055956</v>
+        <v>11453.39215125905</v>
       </c>
       <c r="D101">
-        <v>11458.63776333224</v>
+        <v>11459.25382376767</v>
       </c>
       <c r="E101">
-        <v>0.862446574580253</v>
+        <v>1.098152685155583</v>
       </c>
       <c r="F101">
-        <v>0.702064416069751</v>
+        <v>0.8939378148069477</v>
       </c>
       <c r="G101">
-        <v>6.290042521502795</v>
+        <v>6.289893200882723</v>
       </c>
       <c r="H101">
-        <v>8731068.98059883</v>
+        <v>6825858.784076109</v>
       </c>
       <c r="I101">
-        <v>0.02337835956427047</v>
+        <v>0.01827484938792408</v>
       </c>
       <c r="J101">
-        <v>3.467874808970605E-08</v>
+        <v>3.467654282368213E-08</v>
       </c>
       <c r="K101">
-        <v>2.033903416707881E-05</v>
+        <v>2.034020423271728E-05</v>
       </c>
       <c r="L101">
-        <v>0.0347193450382049</v>
+        <v>0.03472033015881134</v>
       </c>
       <c r="M101">
-        <v>207.2770987801084</v>
+        <v>0.03471739669235881</v>
+      </c>
+      <c r="N101">
+        <v>207.2841523002086</v>
+      </c>
+      <c r="O101">
+        <v>2.933466452526411E-06</v>
       </c>
     </row>
   </sheetData>
